--- a/results/acl-score-limit/mbert/results_sentiment.xlsx
+++ b/results/acl-score-limit/mbert/results_sentiment.xlsx
@@ -22,22 +22,10 @@
     <t>Language</t>
   </si>
   <si>
-    <t>Greek</t>
+    <t>German</t>
   </si>
   <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Algerian</t>
+    <t>Spanish</t>
   </si>
   <si>
     <t>Slovak</t>
@@ -46,7 +34,16 @@
     <t>Norwegian</t>
   </si>
   <si>
+    <t>Greek</t>
+  </si>
+  <si>
     <t>Chinese</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Thai</t>
   </si>
   <si>
     <t>Cantonese</t>
@@ -61,19 +58,22 @@
     <t>Basque</t>
   </si>
   <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
     <t>Hebrew</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>Turkish</t>
+    <t>Algerian</t>
   </si>
   <si>
     <t>Maltese</t>
@@ -504,1118 +504,1118 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4758522727272727</v>
+        <v>0.8373579545454546</v>
       </c>
       <c r="C2">
-        <v>0.4076704545454545</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="D2">
-        <v>0.6491477272727273</v>
+        <v>0.8572443181818182</v>
       </c>
       <c r="E2">
-        <v>0.5646306818181818</v>
+        <v>0.8380681818181818</v>
       </c>
       <c r="F2">
-        <v>0.6278409090909091</v>
+        <v>0.8380681818181818</v>
       </c>
       <c r="G2">
-        <v>0.5553977272727273</v>
+        <v>0.7428977272727273</v>
       </c>
       <c r="H2">
-        <v>0.2052556818181818</v>
+        <v>0.7670454545454546</v>
       </c>
       <c r="I2">
-        <v>0.4119318181818182</v>
+        <v>0.6427556818181818</v>
       </c>
       <c r="J2">
-        <v>0.6583806818181818</v>
+        <v>0.8650568181818182</v>
       </c>
       <c r="K2">
-        <v>0.4595170454545455</v>
+        <v>0.8416193181818182</v>
       </c>
       <c r="L2">
-        <v>0.2911931818181818</v>
+        <v>0.8473011363636364</v>
       </c>
       <c r="M2">
-        <v>0.5916193181818182</v>
+        <v>0.1732954545454546</v>
       </c>
       <c r="N2">
-        <v>0.1377840909090909</v>
+        <v>0.8046875</v>
       </c>
       <c r="O2">
-        <v>0.2535511363636364</v>
+        <v>0.8643465909090909</v>
       </c>
       <c r="P2">
-        <v>0.8757102272727273</v>
+        <v>0.7137784090909091</v>
       </c>
       <c r="Q2">
-        <v>0.2926136363636364</v>
+        <v>0.7919034090909091</v>
       </c>
       <c r="R2">
-        <v>0.6725852272727273</v>
+        <v>0.5234375</v>
       </c>
       <c r="S2">
-        <v>0.7123579545454546</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="T2">
-        <v>0.4474431818181818</v>
+        <v>0.5745738636363636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8209459459459459</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="C3">
-        <v>0.8006756756756757</v>
+        <v>0.7804054054054054</v>
       </c>
       <c r="D3">
-        <v>0.6148648648648649</v>
+        <v>0.4797297297297297</v>
       </c>
       <c r="E3">
+        <v>0.7601351351351351</v>
+      </c>
+      <c r="F3">
+        <v>0.4391891891891892</v>
+      </c>
+      <c r="G3">
+        <v>0.3175675675675675</v>
+      </c>
+      <c r="H3">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="I3">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="J3">
+        <v>0.3445945945945946</v>
+      </c>
+      <c r="K3">
+        <v>0.3851351351351351</v>
+      </c>
+      <c r="L3">
+        <v>0.3682432432432433</v>
+      </c>
+      <c r="M3">
+        <v>0.831081081081081</v>
+      </c>
+      <c r="N3">
+        <v>0.5878378378378378</v>
+      </c>
+      <c r="O3">
+        <v>0.5506756756756757</v>
+      </c>
+      <c r="P3">
+        <v>0.6182432432432432</v>
+      </c>
+      <c r="Q3">
+        <v>0.4290540540540541</v>
+      </c>
+      <c r="R3">
         <v>0.8040540540540541</v>
       </c>
-      <c r="F3">
-        <v>0.6081081081081081</v>
-      </c>
-      <c r="G3">
-        <v>0.5337837837837838</v>
-      </c>
-      <c r="H3">
-        <v>0.8243243243243243</v>
-      </c>
-      <c r="I3">
-        <v>0.847972972972973</v>
-      </c>
-      <c r="J3">
-        <v>0.527027027027027</v>
-      </c>
-      <c r="K3">
-        <v>0.8209459459459459</v>
-      </c>
-      <c r="L3">
-        <v>0.7668918918918919</v>
-      </c>
-      <c r="M3">
-        <v>0.6722972972972973</v>
-      </c>
-      <c r="N3">
-        <v>0.8209459459459459</v>
-      </c>
-      <c r="O3">
-        <v>0.8175675675675675</v>
-      </c>
-      <c r="P3">
-        <v>0.3175675675675675</v>
-      </c>
-      <c r="Q3">
-        <v>0.8513513513513513</v>
-      </c>
-      <c r="R3">
-        <v>0.8412162162162162</v>
-      </c>
       <c r="S3">
-        <v>0.5945945945945946</v>
+        <v>0.2533783783783784</v>
       </c>
       <c r="T3">
-        <v>0.7466216216216216</v>
+        <v>0.5641891891891891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7889641819941917</v>
+        <v>0.3465634075508228</v>
       </c>
       <c r="C4">
+        <v>0.430784123910939</v>
+      </c>
+      <c r="D4">
+        <v>0.7938044530493708</v>
+      </c>
+      <c r="E4">
+        <v>0.7163601161665053</v>
+      </c>
+      <c r="F4">
+        <v>0.3688286544046467</v>
+      </c>
+      <c r="G4">
+        <v>0.5808325266214908</v>
+      </c>
+      <c r="H4">
+        <v>0.8586640851887706</v>
+      </c>
+      <c r="I4">
+        <v>0.6534365924491772</v>
+      </c>
+      <c r="J4">
+        <v>0.1239109390125847</v>
+      </c>
+      <c r="K4">
+        <v>0.1355275895450145</v>
+      </c>
+      <c r="L4">
+        <v>0.3785091965150049</v>
+      </c>
+      <c r="M4">
         <v>0.8809293320425944</v>
       </c>
-      <c r="D4">
-        <v>0.4898354307841239</v>
-      </c>
-      <c r="E4">
-        <v>0.8402710551790901</v>
-      </c>
-      <c r="F4">
-        <v>0.8199419167473379</v>
-      </c>
-      <c r="G4">
-        <v>0.2255566311713456</v>
-      </c>
-      <c r="H4">
-        <v>0.9167473378509197</v>
-      </c>
-      <c r="I4">
-        <v>0.888673765730881</v>
-      </c>
-      <c r="J4">
-        <v>0.462729912875121</v>
-      </c>
-      <c r="K4">
-        <v>0.797676669893514</v>
-      </c>
-      <c r="L4">
-        <v>0.7066795740561471</v>
-      </c>
-      <c r="M4">
-        <v>0.5498547918683446</v>
-      </c>
       <c r="N4">
-        <v>0.882865440464666</v>
+        <v>0.441432720232333</v>
       </c>
       <c r="O4">
-        <v>0.8906098741529526</v>
+        <v>0.3620522749273959</v>
       </c>
       <c r="P4">
-        <v>0.2613746369796708</v>
+        <v>0.5943852855759922</v>
       </c>
       <c r="Q4">
-        <v>0.8025169409486931</v>
+        <v>0.4482090997095837</v>
       </c>
       <c r="R4">
-        <v>0.9002904162633107</v>
+        <v>0.8557599225556631</v>
       </c>
       <c r="S4">
-        <v>0.601161665053243</v>
+        <v>0.1781219748305905</v>
       </c>
       <c r="T4">
-        <v>0.6660212971926428</v>
+        <v>0.3514036786060019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7242206235011991</v>
+        <v>0.407673860911271</v>
       </c>
       <c r="C5">
-        <v>0.592326139088729</v>
+        <v>0.4844124700239808</v>
       </c>
       <c r="D5">
-        <v>0.5683453237410072</v>
+        <v>0.4004796163069544</v>
       </c>
       <c r="E5">
-        <v>0.709832134292566</v>
+        <v>0.7290167865707434</v>
       </c>
       <c r="F5">
-        <v>0.6163069544364509</v>
+        <v>0.6187050359712231</v>
       </c>
       <c r="G5">
-        <v>0.5827338129496403</v>
+        <v>0.7026378896882494</v>
       </c>
       <c r="H5">
-        <v>0.7170263788968825</v>
+        <v>0.5731414868105515</v>
       </c>
       <c r="I5">
-        <v>0.750599520383693</v>
+        <v>0.369304556354916</v>
       </c>
       <c r="J5">
-        <v>0.5179856115107914</v>
+        <v>0.3045563549160671</v>
       </c>
       <c r="K5">
-        <v>0.709832134292566</v>
+        <v>0.4412470023980815</v>
       </c>
       <c r="L5">
-        <v>0.7026378896882494</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="M5">
-        <v>0.3932853717026379</v>
+        <v>0.6642685851318945</v>
       </c>
       <c r="N5">
-        <v>0.7218225419664268</v>
+        <v>0.5635491606714629</v>
       </c>
       <c r="O5">
-        <v>0.7338129496402878</v>
+        <v>0.4028776978417266</v>
       </c>
       <c r="P5">
-        <v>0.3093525179856115</v>
+        <v>0.5899280575539568</v>
       </c>
       <c r="Q5">
-        <v>0.7194244604316546</v>
+        <v>0.3501199040767386</v>
       </c>
       <c r="R5">
-        <v>0.7482014388489209</v>
+        <v>0.7122302158273381</v>
       </c>
       <c r="S5">
-        <v>0.5563549160671463</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="T5">
-        <v>0.6834532374100719</v>
+        <v>0.4748201438848921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6789250353606789</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="C6">
-        <v>0.4271570014144271</v>
+        <v>0.6053748231966054</v>
       </c>
       <c r="D6">
-        <v>0.5869872701555869</v>
+        <v>0.562942008486563</v>
       </c>
       <c r="E6">
-        <v>0.4738330975954738</v>
+        <v>0.57001414427157</v>
       </c>
       <c r="F6">
-        <v>0.5487977369165488</v>
+        <v>0.7213578500707214</v>
       </c>
       <c r="G6">
-        <v>0.5148514851485149</v>
+        <v>0.5968882602545968</v>
       </c>
       <c r="H6">
-        <v>0.3691654879773691</v>
+        <v>0.4978783592644979</v>
       </c>
       <c r="I6">
-        <v>0.471004243281471</v>
+        <v>0.4045261669024045</v>
       </c>
       <c r="J6">
-        <v>0.7326732673267327</v>
+        <v>0.6067892503536068</v>
       </c>
       <c r="K6">
-        <v>0.5035360678925035</v>
+        <v>0.6760961810466761</v>
       </c>
       <c r="L6">
-        <v>0.6294200848656294</v>
+        <v>0.5516265912305516</v>
       </c>
       <c r="M6">
-        <v>0.5304101838755304</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="N6">
-        <v>0.4398868458274399</v>
+        <v>0.5374823196605375</v>
       </c>
       <c r="O6">
-        <v>0.4978783592644979</v>
+        <v>0.5657708628005658</v>
       </c>
       <c r="P6">
-        <v>0.5332390381895332</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="Q6">
-        <v>0.5671852899575672</v>
+        <v>0.5558698727015559</v>
       </c>
       <c r="R6">
-        <v>0.5063649222065064</v>
+        <v>0.5106082036775106</v>
       </c>
       <c r="S6">
-        <v>0.4031117397454031</v>
+        <v>0.5021216407355021</v>
       </c>
       <c r="T6">
-        <v>0.3804809052333805</v>
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6046656946469485</v>
+        <v>0.5098937721308061</v>
       </c>
       <c r="C7">
-        <v>0.5042699437617163</v>
+        <v>0.6471568423245158</v>
       </c>
       <c r="D7">
-        <v>0.5130181212247449</v>
+        <v>0.4224119975005207</v>
       </c>
       <c r="E7">
-        <v>0.5373880441574672</v>
+        <v>0.5725890439491772</v>
       </c>
       <c r="F7">
+        <v>0.6294521974588627</v>
+      </c>
+      <c r="G7">
+        <v>0.7058946052905645</v>
+      </c>
+      <c r="H7">
+        <v>0.5952926473651322</v>
+      </c>
+      <c r="I7">
+        <v>0.4286606956883983</v>
+      </c>
+      <c r="J7">
+        <v>0.6456988127473443</v>
+      </c>
+      <c r="K7">
         <v>0.5134347011039366</v>
       </c>
-      <c r="G7">
+      <c r="L7">
+        <v>0.416788169131431</v>
+      </c>
+      <c r="M7">
+        <v>0.535305144761508</v>
+      </c>
+      <c r="N7">
         <v>0.4463653405540512</v>
       </c>
-      <c r="H7">
-        <v>0.6309102270360342</v>
-      </c>
-      <c r="I7">
-        <v>0.6713184753176421</v>
-      </c>
-      <c r="J7">
-        <v>0.6863153509685482</v>
-      </c>
-      <c r="K7">
-        <v>0.6500729014788585</v>
-      </c>
-      <c r="L7">
-        <v>0.6350760258279525</v>
-      </c>
-      <c r="M7">
-        <v>0.4630285357217246</v>
-      </c>
-      <c r="N7">
-        <v>0.6113309727140179</v>
-      </c>
       <c r="O7">
-        <v>0.6586127890022911</v>
+        <v>0.5359300145802958</v>
       </c>
       <c r="P7">
-        <v>0.4078317017288065</v>
+        <v>0.4421995417621329</v>
       </c>
       <c r="Q7">
-        <v>0.6298687773380546</v>
+        <v>0.4113726307019371</v>
       </c>
       <c r="R7">
-        <v>0.628827327640075</v>
+        <v>0.5490522807748386</v>
       </c>
       <c r="S7">
-        <v>0.4842741095605082</v>
+        <v>0.3947094355342637</v>
       </c>
       <c r="T7">
-        <v>0.5965423870027078</v>
+        <v>0.4351176838158717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5146627565982405</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C8">
-        <v>0.5131964809384164</v>
+        <v>0.6041055718475073</v>
       </c>
       <c r="D8">
-        <v>0.5571847507331378</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="E8">
-        <v>0.5630498533724341</v>
+        <v>0.6011730205278593</v>
       </c>
       <c r="F8">
+        <v>0.5058651026392962</v>
+      </c>
+      <c r="G8">
+        <v>0.5718475073313783</v>
+      </c>
+      <c r="H8">
+        <v>0.7082111436950147</v>
+      </c>
+      <c r="I8">
+        <v>0.530791788856305</v>
+      </c>
+      <c r="J8">
+        <v>0.5689149560117303</v>
+      </c>
+      <c r="K8">
+        <v>0.4853372434017595</v>
+      </c>
+      <c r="L8">
+        <v>0.5263929618768328</v>
+      </c>
+      <c r="M8">
         <v>0.5483870967741935</v>
       </c>
-      <c r="G8">
-        <v>0.4853372434017595</v>
-      </c>
-      <c r="H8">
-        <v>0.5366568914956011</v>
-      </c>
-      <c r="I8">
-        <v>0.624633431085044</v>
-      </c>
-      <c r="J8">
-        <v>0.5249266862170088</v>
-      </c>
-      <c r="K8">
+      <c r="N8">
         <v>0.5645161290322581</v>
       </c>
-      <c r="L8">
-        <v>0.5175953079178885</v>
-      </c>
-      <c r="M8">
-        <v>0.5395894428152492</v>
-      </c>
-      <c r="N8">
+      <c r="O8">
+        <v>0.4941348973607038</v>
+      </c>
+      <c r="P8">
+        <v>0.5043988269794721</v>
+      </c>
+      <c r="Q8">
+        <v>0.530791788856305</v>
+      </c>
+      <c r="R8">
         <v>0.5234604105571847</v>
       </c>
-      <c r="O8">
-        <v>0.5439882697947214</v>
-      </c>
-      <c r="P8">
-        <v>0.5102639296187683</v>
-      </c>
-      <c r="Q8">
-        <v>0.6011730205278593</v>
-      </c>
-      <c r="R8">
-        <v>0.6803519061583577</v>
-      </c>
       <c r="S8">
-        <v>0.5219941348973607</v>
+        <v>0.4912023460410557</v>
       </c>
       <c r="T8">
-        <v>0.5234604105571847</v>
+        <v>0.5043988269794721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4146341463414634</v>
+        <v>0.6023519163763066</v>
       </c>
       <c r="C9">
-        <v>0.6999128919860628</v>
+        <v>0.5993031358885017</v>
       </c>
       <c r="D9">
-        <v>0.634581881533101</v>
+        <v>0.6746515679442509</v>
       </c>
       <c r="E9">
-        <v>0.6276132404181185</v>
+        <v>0.6576655052264808</v>
       </c>
       <c r="F9">
-        <v>0.6524390243902439</v>
+        <v>0.3523519163763066</v>
       </c>
       <c r="G9">
-        <v>0.5775261324041812</v>
+        <v>0.4947735191637631</v>
       </c>
       <c r="H9">
-        <v>0.414198606271777</v>
+        <v>0.6898954703832753</v>
       </c>
       <c r="I9">
-        <v>0.546602787456446</v>
+        <v>0.7286585365853658</v>
       </c>
       <c r="J9">
-        <v>0.453397212543554</v>
+        <v>0.6027874564459931</v>
       </c>
       <c r="K9">
-        <v>0.4568815331010453</v>
+        <v>0.5065331010452961</v>
       </c>
       <c r="L9">
-        <v>0.35801393728223</v>
+        <v>0.6189024390243902</v>
       </c>
       <c r="M9">
-        <v>0.671602787456446</v>
+        <v>0.4477351916376306</v>
       </c>
       <c r="N9">
-        <v>0.414198606271777</v>
+        <v>0.6223867595818815</v>
       </c>
       <c r="O9">
-        <v>0.4159407665505226</v>
+        <v>0.5971254355400697</v>
       </c>
       <c r="P9">
-        <v>0.6067073170731707</v>
+        <v>0.6132404181184669</v>
       </c>
       <c r="Q9">
-        <v>0.5905923344947736</v>
+        <v>0.6141114982578397</v>
       </c>
       <c r="R9">
-        <v>0.622822299651568</v>
+        <v>0.5505226480836237</v>
       </c>
       <c r="S9">
-        <v>0.627177700348432</v>
+        <v>0.5801393728222997</v>
       </c>
       <c r="T9">
-        <v>0.4899825783972125</v>
+        <v>0.6045296167247387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8333146382501402</v>
+        <v>0.3701626472237802</v>
       </c>
       <c r="C10">
-        <v>0.2874929893438026</v>
+        <v>0.5167694896242289</v>
       </c>
       <c r="D10">
-        <v>0.7068984856982613</v>
+        <v>0.1438025799214807</v>
       </c>
       <c r="E10">
-        <v>0.3913628715647784</v>
+        <v>0.3098149186763881</v>
       </c>
       <c r="F10">
-        <v>0.2885025238362311</v>
+        <v>0.6544026920919798</v>
       </c>
       <c r="G10">
-        <v>0.1721817162086371</v>
+        <v>0.8315199102636007</v>
       </c>
       <c r="H10">
-        <v>0.4566461020751542</v>
+        <v>0.5255187885586091</v>
       </c>
       <c r="I10">
-        <v>0.8042624789680314</v>
+        <v>0.3204711160964666</v>
       </c>
       <c r="J10">
-        <v>0.6017947279865395</v>
+        <v>0.8158160403813797</v>
       </c>
       <c r="K10">
-        <v>0.8404935501962983</v>
+        <v>0.4943353897924846</v>
       </c>
       <c r="L10">
-        <v>0.8563095905776781</v>
+        <v>0.1484015703869882</v>
       </c>
       <c r="M10">
-        <v>0.1687044307347168</v>
+        <v>0.8573191250701065</v>
       </c>
       <c r="N10">
-        <v>0.8570947840717891</v>
+        <v>0.1724060572069546</v>
       </c>
       <c r="O10">
-        <v>0.6114413909141896</v>
+        <v>0.1762198541783511</v>
       </c>
       <c r="P10">
-        <v>0.1435782389231632</v>
+        <v>0.1644419517666854</v>
       </c>
       <c r="Q10">
-        <v>0.8217610768367919</v>
+        <v>0.1477285473920359</v>
       </c>
       <c r="R10">
-        <v>0.6781828379136288</v>
+        <v>0.1558048233314638</v>
       </c>
       <c r="S10">
-        <v>0.2429613011777902</v>
+        <v>0.1550196298373528</v>
       </c>
       <c r="T10">
-        <v>0.3112731351654515</v>
+        <v>0.2017947279865396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6584289496910856</v>
+        <v>0.5741394527802295</v>
       </c>
       <c r="C11">
-        <v>0.4276257722859665</v>
+        <v>0.7140335392762577</v>
       </c>
       <c r="D11">
-        <v>0.4748455428067079</v>
+        <v>0.3596646072374228</v>
       </c>
       <c r="E11">
-        <v>0.4669020300088261</v>
+        <v>0.6906443071491615</v>
       </c>
       <c r="F11">
-        <v>0.4920564872021183</v>
+        <v>0.7714033539276258</v>
       </c>
       <c r="G11">
-        <v>0.353486319505737</v>
+        <v>0.7312444836716682</v>
       </c>
       <c r="H11">
-        <v>0.6332744924977934</v>
+        <v>0.6813768755516328</v>
       </c>
       <c r="I11">
-        <v>0.7365401588702559</v>
+        <v>0.3411297440423654</v>
       </c>
       <c r="J11">
-        <v>0.7550750220653133</v>
+        <v>0.8031774051191527</v>
       </c>
       <c r="K11">
-        <v>0.7321270962047661</v>
+        <v>0.7113857016769638</v>
       </c>
       <c r="L11">
-        <v>0.7581641659311562</v>
+        <v>0.3578993821712269</v>
       </c>
       <c r="M11">
-        <v>0.3733451015004413</v>
+        <v>0.6535745807590467</v>
       </c>
       <c r="N11">
-        <v>0.6487202118270079</v>
+        <v>0.3909973521624007</v>
       </c>
       <c r="O11">
-        <v>0.677405119152692</v>
+        <v>0.4046778464254193</v>
       </c>
       <c r="P11">
-        <v>0.3918799646954987</v>
+        <v>0.4779346866725507</v>
       </c>
       <c r="Q11">
-        <v>0.7828773168578994</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="R11">
-        <v>0.7228596646072374</v>
+        <v>0.3936451897616946</v>
       </c>
       <c r="S11">
-        <v>0.4042365401588703</v>
+        <v>0.3548102383053839</v>
       </c>
       <c r="T11">
-        <v>0.4536628420123566</v>
+        <v>0.3848190644307149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4477848101265823</v>
+        <v>0.5806962025316456</v>
       </c>
       <c r="C12">
-        <v>0.5039556962025317</v>
+        <v>0.5585443037974683</v>
       </c>
       <c r="D12">
-        <v>0.5941455696202531</v>
+        <v>0.6542721518987342</v>
       </c>
       <c r="E12">
-        <v>0.4754746835443038</v>
+        <v>0.6091772151898734</v>
       </c>
       <c r="F12">
-        <v>0.5466772151898734</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="G12">
-        <v>0.5379746835443038</v>
+        <v>0.5221518987341772</v>
       </c>
       <c r="H12">
-        <v>0.4588607594936709</v>
+        <v>0.6495253164556962</v>
       </c>
       <c r="I12">
-        <v>0.6147151898734177</v>
+        <v>0.6052215189873418</v>
       </c>
       <c r="J12">
-        <v>0.5712025316455697</v>
+        <v>0.5545886075949367</v>
       </c>
       <c r="K12">
-        <v>0.4303797468354431</v>
+        <v>0.5411392405063291</v>
       </c>
       <c r="L12">
-        <v>0.4580696202531646</v>
+        <v>0.7357594936708861</v>
       </c>
       <c r="M12">
-        <v>0.7175632911392406</v>
+        <v>0.4541139240506329</v>
       </c>
       <c r="N12">
-        <v>0.4477848101265823</v>
+        <v>0.6052215189873418</v>
       </c>
       <c r="O12">
-        <v>0.5324367088607594</v>
+        <v>0.5561708860759493</v>
       </c>
       <c r="P12">
-        <v>0.5609177215189873</v>
+        <v>0.5735759493670886</v>
       </c>
       <c r="Q12">
-        <v>0.5110759493670886</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="R12">
-        <v>0.625</v>
+        <v>0.5055379746835443</v>
       </c>
       <c r="S12">
-        <v>0.5854430379746836</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="T12">
-        <v>0.4675632911392405</v>
+        <v>0.5498417721518988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.8017621145374449</v>
+        <v>0.2070484581497797</v>
       </c>
       <c r="C13">
-        <v>0.7929515418502202</v>
+        <v>0.2819383259911895</v>
       </c>
       <c r="D13">
-        <v>0.2819383259911895</v>
+        <v>0.3700440528634361</v>
       </c>
       <c r="E13">
-        <v>0.8105726872246696</v>
+        <v>0.4757709251101321</v>
       </c>
       <c r="F13">
-        <v>0.7577092511013216</v>
+        <v>0.6828193832599119</v>
       </c>
       <c r="G13">
-        <v>0.2466960352422908</v>
+        <v>0.4625550660792951</v>
       </c>
       <c r="H13">
-        <v>0.8458149779735683</v>
+        <v>0.6431718061674009</v>
       </c>
       <c r="I13">
-        <v>0.7665198237885462</v>
+        <v>0.4493392070484581</v>
       </c>
       <c r="J13">
-        <v>0.3215859030837004</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="K13">
-        <v>0.8281938325991189</v>
+        <v>0.3127753303964758</v>
       </c>
       <c r="L13">
-        <v>0.7577092511013216</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="M13">
-        <v>0.5110132158590308</v>
+        <v>0.8237885462555066</v>
       </c>
       <c r="N13">
-        <v>0.8766519823788547</v>
+        <v>0.3039647577092511</v>
       </c>
       <c r="O13">
-        <v>0.8414096916299559</v>
+        <v>0.2907488986784141</v>
       </c>
       <c r="P13">
-        <v>0.1674008810572687</v>
+        <v>0.4140969162995595</v>
       </c>
       <c r="Q13">
-        <v>0.788546255506608</v>
+        <v>0.1850220264317181</v>
       </c>
       <c r="R13">
-        <v>0.6607929515418502</v>
+        <v>0.8370044052863436</v>
       </c>
       <c r="S13">
-        <v>0.5242290748898678</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="T13">
-        <v>0.7533039647577092</v>
+        <v>0.5682819383259912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4971878515185602</v>
+        <v>0.5853018372703412</v>
       </c>
       <c r="C14">
-        <v>0.4986876640419948</v>
+        <v>0.5448068991376078</v>
       </c>
       <c r="D14">
-        <v>0.7075365579302587</v>
+        <v>0.5613048368953881</v>
       </c>
       <c r="E14">
-        <v>0.5564304461942258</v>
+        <v>0.6070491188601425</v>
       </c>
       <c r="F14">
-        <v>0.5541807274090739</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="G14">
-        <v>0.5140607424071991</v>
+        <v>0.5076865391826022</v>
       </c>
       <c r="H14">
-        <v>0.5031871016122985</v>
+        <v>0.6115485564304461</v>
       </c>
       <c r="I14">
-        <v>0.5511811023622047</v>
+        <v>0.5376827896512936</v>
       </c>
       <c r="J14">
-        <v>0.4983127109111361</v>
+        <v>0.5376827896512936</v>
       </c>
       <c r="K14">
-        <v>0.5684289463817023</v>
+        <v>0.5069366329208849</v>
       </c>
       <c r="L14">
-        <v>0.5298087739032621</v>
+        <v>0.5598050243719535</v>
       </c>
       <c r="M14">
-        <v>0.551931008623922</v>
+        <v>0.4934383202099737</v>
       </c>
       <c r="N14">
-        <v>0.4889388826396701</v>
+        <v>0.714660667416573</v>
       </c>
       <c r="O14">
-        <v>0.5125609298837646</v>
+        <v>0.567679040119985</v>
       </c>
       <c r="P14">
-        <v>0.5245594300712411</v>
+        <v>0.553055868016498</v>
       </c>
       <c r="Q14">
-        <v>0.5770528683914511</v>
+        <v>0.6081739782527185</v>
       </c>
       <c r="R14">
-        <v>0.5605549306336708</v>
+        <v>0.5121859767529059</v>
       </c>
       <c r="S14">
-        <v>0.5714285714285714</v>
+        <v>0.5234345706786652</v>
       </c>
       <c r="T14">
-        <v>0.5136857892763405</v>
+        <v>0.5155605549306337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.6370431893687708</v>
+        <v>0.4555647840531561</v>
       </c>
       <c r="C15">
-        <v>0.5876245847176079</v>
+        <v>0.5975913621262459</v>
       </c>
       <c r="D15">
+        <v>0.3766611295681063</v>
+      </c>
+      <c r="E15">
         <v>0.5132890365448505</v>
       </c>
-      <c r="E15">
-        <v>0.7321428571428571</v>
-      </c>
       <c r="F15">
-        <v>0.6166943521594684</v>
+        <v>0.6200166112956811</v>
       </c>
       <c r="G15">
-        <v>0.3729235880398671</v>
+        <v>0.5627076411960132</v>
       </c>
       <c r="H15">
-        <v>0.6490863787375415</v>
+        <v>0.6893687707641196</v>
       </c>
       <c r="I15">
-        <v>0.6985049833887044</v>
+        <v>0.4435215946843854</v>
       </c>
       <c r="J15">
-        <v>0.635797342192691</v>
+        <v>0.6187707641196013</v>
       </c>
       <c r="K15">
-        <v>0.707641196013289</v>
+        <v>0.3633720930232558</v>
       </c>
       <c r="L15">
-        <v>0.6399501661129569</v>
+        <v>0.3700166112956811</v>
       </c>
       <c r="M15">
-        <v>0.3795681063122924</v>
+        <v>0.6411960132890365</v>
       </c>
       <c r="N15">
-        <v>0.6416112956810631</v>
+        <v>0.4206810631229236</v>
       </c>
       <c r="O15">
-        <v>0.6482558139534884</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="P15">
-        <v>0.3596345514950166</v>
+        <v>0.3617109634551495</v>
       </c>
       <c r="Q15">
-        <v>0.6947674418604651</v>
+        <v>0.5249169435215947</v>
       </c>
       <c r="R15">
-        <v>0.7217607973421927</v>
+        <v>0.6187707641196013</v>
       </c>
       <c r="S15">
-        <v>0.3704318936877076</v>
+        <v>0.3725083056478405</v>
       </c>
       <c r="T15">
-        <v>0.4426910299003322</v>
+        <v>0.3687707641196013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.5781990521327014</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="C16">
-        <v>0.5829383886255924</v>
+        <v>0.5165876777251185</v>
       </c>
       <c r="D16">
-        <v>0.4265402843601896</v>
+        <v>0.4976303317535545</v>
       </c>
       <c r="E16">
-        <v>0.6350710900473934</v>
+        <v>0.6161137440758294</v>
       </c>
       <c r="F16">
+        <v>0.5734597156398105</v>
+      </c>
+      <c r="G16">
+        <v>0.6018957345971564</v>
+      </c>
+      <c r="H16">
+        <v>0.7298578199052133</v>
+      </c>
+      <c r="I16">
+        <v>0.4881516587677725</v>
+      </c>
+      <c r="J16">
+        <v>0.5497630331753555</v>
+      </c>
+      <c r="K16">
+        <v>0.4597156398104265</v>
+      </c>
+      <c r="L16">
+        <v>0.4123222748815166</v>
+      </c>
+      <c r="M16">
+        <v>0.6208530805687204</v>
+      </c>
+      <c r="N16">
+        <v>0.5402843601895735</v>
+      </c>
+      <c r="O16">
+        <v>0.4928909952606635</v>
+      </c>
+      <c r="P16">
+        <v>0.7109004739336493</v>
+      </c>
+      <c r="Q16">
+        <v>0.4028436018957346</v>
+      </c>
+      <c r="R16">
+        <v>0.5971563981042654</v>
+      </c>
+      <c r="S16">
+        <v>0.4170616113744076</v>
+      </c>
+      <c r="T16">
         <v>0.5639810426540285</v>
-      </c>
-      <c r="G16">
-        <v>0.4028436018957346</v>
-      </c>
-      <c r="H16">
-        <v>0.5971563981042654</v>
-      </c>
-      <c r="I16">
-        <v>0.6777251184834123</v>
-      </c>
-      <c r="J16">
-        <v>0.5829383886255924</v>
-      </c>
-      <c r="K16">
-        <v>0.6255924170616114</v>
-      </c>
-      <c r="L16">
-        <v>0.6824644549763034</v>
-      </c>
-      <c r="M16">
-        <v>0.5023696682464455</v>
-      </c>
-      <c r="N16">
-        <v>0.5924170616113744</v>
-      </c>
-      <c r="O16">
-        <v>0.6161137440758294</v>
-      </c>
-      <c r="P16">
-        <v>0.4360189573459716</v>
-      </c>
-      <c r="Q16">
-        <v>0.6919431279620853</v>
-      </c>
-      <c r="R16">
-        <v>0.6540284360189573</v>
-      </c>
-      <c r="S16">
-        <v>0.7203791469194313</v>
-      </c>
-      <c r="T16">
-        <v>0.5734597156398105</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.4601139601139601</v>
+        <v>0.5698005698005698</v>
       </c>
       <c r="C17">
-        <v>0.5484330484330484</v>
+        <v>0.5014245014245015</v>
       </c>
       <c r="D17">
-        <v>0.6396011396011396</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E17">
-        <v>0.5327635327635327</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="F17">
-        <v>0.6965811965811965</v>
+        <v>0.5014245014245015</v>
       </c>
       <c r="G17">
-        <v>0.5156695156695157</v>
+        <v>0.4943019943019943</v>
       </c>
       <c r="H17">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="I17">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="J17">
+        <v>0.5028490028490028</v>
+      </c>
+      <c r="K17">
+        <v>0.4971509971509971</v>
+      </c>
+      <c r="L17">
+        <v>0.5398860398860399</v>
+      </c>
+      <c r="M17">
         <v>0.4985754985754986</v>
       </c>
-      <c r="I17">
-        <v>0.5441595441595442</v>
-      </c>
-      <c r="J17">
+      <c r="N17">
+        <v>0.6025641025641025</v>
+      </c>
+      <c r="O17">
         <v>0.5</v>
       </c>
-      <c r="K17">
-        <v>0.5042735042735043</v>
-      </c>
-      <c r="L17">
-        <v>0.462962962962963</v>
-      </c>
-      <c r="M17">
-        <v>0.5826210826210826</v>
-      </c>
-      <c r="N17">
-        <v>0.5</v>
-      </c>
-      <c r="O17">
-        <v>0.5384615384615384</v>
-      </c>
       <c r="P17">
-        <v>0.5227920227920227</v>
+        <v>0.5455840455840456</v>
       </c>
       <c r="Q17">
-        <v>0.5726495726495726</v>
+        <v>0.6951566951566952</v>
       </c>
       <c r="R17">
-        <v>0.5512820512820513</v>
+        <v>0.5712250712250713</v>
       </c>
       <c r="S17">
-        <v>0.5470085470085471</v>
+        <v>0.5142450142450142</v>
       </c>
       <c r="T17">
-        <v>0.4501424501424501</v>
+        <v>0.4914529914529914</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6870026525198939</v>
+        <v>0.5645446507515473</v>
       </c>
       <c r="C18">
-        <v>0.7365163572060124</v>
+        <v>0.4058355437665783</v>
       </c>
       <c r="D18">
-        <v>0.6648983200707339</v>
+        <v>0.5013262599469496</v>
       </c>
       <c r="E18">
-        <v>0.6595932802829354</v>
+        <v>0.6472148541114059</v>
       </c>
       <c r="F18">
-        <v>0.7091069849690539</v>
+        <v>0.4518125552608311</v>
       </c>
       <c r="G18">
-        <v>0.3651635720601238</v>
+        <v>0.4610963748894784</v>
       </c>
       <c r="H18">
-        <v>0.7046861184792219</v>
+        <v>0.7661361626878869</v>
       </c>
       <c r="I18">
-        <v>0.737842617152962</v>
+        <v>0.7020335985853228</v>
       </c>
       <c r="J18">
-        <v>0.4460654288240495</v>
+        <v>0.3289124668435013</v>
       </c>
       <c r="K18">
-        <v>0.6839080459770115</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L18">
-        <v>0.5092838196286472</v>
+        <v>0.5035366931918656</v>
       </c>
       <c r="M18">
+        <v>0.6931918656056587</v>
+      </c>
+      <c r="N18">
+        <v>0.6330680813439434</v>
+      </c>
+      <c r="O18">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="P18">
+        <v>0.5234305923961097</v>
+      </c>
+      <c r="Q18">
         <v>0.6635720601237842</v>
       </c>
-      <c r="N18">
-        <v>0.6914235190097259</v>
-      </c>
-      <c r="O18">
-        <v>0.7829354553492485</v>
-      </c>
-      <c r="P18">
-        <v>0.3885941644562334</v>
-      </c>
-      <c r="Q18">
-        <v>0.7197170645446508</v>
-      </c>
       <c r="R18">
-        <v>0.7648099027409372</v>
+        <v>0.7493368700265252</v>
       </c>
       <c r="S18">
-        <v>0.603448275862069</v>
+        <v>0.361184792219275</v>
       </c>
       <c r="T18">
-        <v>0.4376657824933687</v>
+        <v>0.3647214854111406</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.6086956521739131</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
+        <v>0.358695652173913</v>
+      </c>
+      <c r="D19">
+        <v>0.358695652173913</v>
+      </c>
+      <c r="E19">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="F19">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="G19">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="H19">
         <v>0.6521739130434783</v>
       </c>
-      <c r="D19">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="E19">
-        <v>0.4565217391304348</v>
-      </c>
-      <c r="F19">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="G19">
-        <v>0.7065217391304348</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="J19">
+        <v>0.358695652173913</v>
+      </c>
+      <c r="K19">
+        <v>0.358695652173913</v>
+      </c>
+      <c r="L19">
+        <v>0.4239130434782609</v>
+      </c>
+      <c r="M19">
         <v>0.6413043478260869</v>
       </c>
-      <c r="I19">
-        <v>0.6630434782608695</v>
-      </c>
-      <c r="J19">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="K19">
-        <v>0.6630434782608695</v>
-      </c>
-      <c r="L19">
+      <c r="N19">
+        <v>0.4456521739130435</v>
+      </c>
+      <c r="O19">
         <v>0.358695652173913</v>
       </c>
-      <c r="M19">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="N19">
-        <v>0.6413043478260869</v>
-      </c>
-      <c r="O19">
-        <v>0.6413043478260869</v>
-      </c>
       <c r="P19">
-        <v>0.3804347826086957</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="Q19">
-        <v>0.4239130434782609</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="R19">
-        <v>0.6847826086956522</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="S19">
-        <v>0.6086956521739131</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="T19">
-        <v>0.4130434782608696</v>
+        <v>0.358695652173913</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1623,61 +1623,61 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.5470588235294118</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="C20">
-        <v>0.3882352941176471</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="D20">
-        <v>0.5823529411764706</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="E20">
-        <v>0.5941176470588235</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="F20">
-        <v>0.5176470588235295</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="G20">
+        <v>0.6529411764705882</v>
+      </c>
+      <c r="H20">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="I20">
+        <v>0.6235294117647059</v>
+      </c>
+      <c r="J20">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="K20">
+        <v>0.6294117647058823</v>
+      </c>
+      <c r="L20">
+        <v>0.6588235294117647</v>
+      </c>
+      <c r="M20">
+        <v>0.3352941176470588</v>
+      </c>
+      <c r="N20">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="O20">
+        <v>0.6529411764705882</v>
+      </c>
+      <c r="P20">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="Q20">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="R20">
+        <v>0.5529411764705883</v>
+      </c>
+      <c r="S20">
         <v>0.6647058823529411</v>
       </c>
-      <c r="H20">
-        <v>0.4176470588235294</v>
-      </c>
-      <c r="I20">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="J20">
-        <v>0.5058823529411764</v>
-      </c>
-      <c r="K20">
-        <v>0.6235294117647059</v>
-      </c>
-      <c r="L20">
-        <v>0.6823529411764706</v>
-      </c>
-      <c r="M20">
-        <v>0.6529411764705882</v>
-      </c>
-      <c r="N20">
-        <v>0.3470588235294118</v>
-      </c>
-      <c r="O20">
-        <v>0.4352941176470588</v>
-      </c>
-      <c r="P20">
-        <v>0.6647058823529411</v>
-      </c>
-      <c r="Q20">
-        <v>0.6588235294117647</v>
-      </c>
-      <c r="R20">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="S20">
-        <v>0.5294117647058824</v>
-      </c>
       <c r="T20">
-        <v>0.7470588235294118</v>
+        <v>0.7176470588235294</v>
       </c>
     </row>
   </sheetData>
@@ -1757,1118 +1757,1118 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4953902689751747</v>
+        <v>0.6824229518480001</v>
       </c>
       <c r="C2">
-        <v>0.5231208185753641</v>
+        <v>0.6495443830700489</v>
       </c>
       <c r="D2">
-        <v>0.560490138509896</v>
+        <v>0.6067650290378277</v>
       </c>
       <c r="E2">
-        <v>0.5416478420392592</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="F2">
-        <v>0.5026141992294992</v>
+        <v>0.5360408684546616</v>
       </c>
       <c r="G2">
-        <v>0.5247065136093135</v>
+        <v>0.5509522945764557</v>
       </c>
       <c r="H2">
-        <v>0.553379459137745</v>
+        <v>0.5968261696109798</v>
       </c>
       <c r="I2">
-        <v>0.5529232552054129</v>
+        <v>0.5234772338871354</v>
       </c>
       <c r="J2">
-        <v>0.5400255419103981</v>
+        <v>0.8492629576795054</v>
       </c>
       <c r="K2">
-        <v>0.5378758594467856</v>
+        <v>0.4733014254500052</v>
       </c>
       <c r="L2">
-        <v>0.5215927920463961</v>
+        <v>0.6151608434662152</v>
       </c>
       <c r="M2">
-        <v>0.5465721403746194</v>
+        <v>0.5148809523809523</v>
       </c>
       <c r="N2">
-        <v>0.06889204545454546</v>
+        <v>0.5484066743271456</v>
       </c>
       <c r="O2">
-        <v>0.5398496469046099</v>
+        <v>0.7896910370143775</v>
       </c>
       <c r="P2">
-        <v>0.7396659632846545</v>
+        <v>0.567869594012021</v>
       </c>
       <c r="Q2">
-        <v>0.5428269346954468</v>
+        <v>0.5217014295758143</v>
       </c>
       <c r="R2">
-        <v>0.5792399976438094</v>
+        <v>0.5353089457004526</v>
       </c>
       <c r="S2">
-        <v>0.5584813704518679</v>
+        <v>0.4668745555008479</v>
       </c>
       <c r="T2">
-        <v>0.5370717952673575</v>
+        <v>0.5384344901391225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6140893470790378</v>
+        <v>0.6196969696969696</v>
       </c>
       <c r="C3">
-        <v>0.6228252102776817</v>
+        <v>0.6621301073355867</v>
       </c>
       <c r="D3">
-        <v>0.5765523632993512</v>
+        <v>0.562305900621118</v>
       </c>
       <c r="E3">
-        <v>0.5839328537170264</v>
+        <v>0.6715633492283238</v>
       </c>
       <c r="F3">
-        <v>0.5441820605598934</v>
+        <v>0.5051418777375738</v>
       </c>
       <c r="G3">
-        <v>0.5337837837837838</v>
+        <v>0.5675403225806451</v>
       </c>
       <c r="H3">
-        <v>0.6643835616438356</v>
+        <v>0.6650717703349283</v>
       </c>
       <c r="I3">
-        <v>0.737374949979992</v>
+        <v>0.5308779761904762</v>
       </c>
       <c r="J3">
-        <v>0.5674698795180723</v>
+        <v>0.5847872666054484</v>
       </c>
       <c r="K3">
-        <v>0.649497145963577</v>
+        <v>0.5776232616940582</v>
       </c>
       <c r="L3">
-        <v>0.4914391143911439</v>
+        <v>0.5438601879722341</v>
       </c>
       <c r="M3">
-        <v>0.5770753998476771</v>
+        <v>0.6991421568627451</v>
       </c>
       <c r="N3">
-        <v>0.5796359499431172</v>
+        <v>0.6011523687580025</v>
       </c>
       <c r="O3">
-        <v>0.5376712328767124</v>
+        <v>0.5986814518007735</v>
       </c>
       <c r="P3">
-        <v>0.5782608695652174</v>
+        <v>0.6117150034254396</v>
       </c>
       <c r="Q3">
-        <v>0.767156862745098</v>
+        <v>0.5633610292146878</v>
       </c>
       <c r="R3">
-        <v>0.7237337990624138</v>
+        <v>0.5577507598784195</v>
       </c>
       <c r="S3">
-        <v>0.6124542124542125</v>
+        <v>0.5135960364097246</v>
       </c>
       <c r="T3">
-        <v>0.5254423720707796</v>
+        <v>0.5752319575848988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4781282561333712</v>
+        <v>0.5685107047976246</v>
       </c>
       <c r="C4">
-        <v>0.7107932538637988</v>
+        <v>0.5774281147414193</v>
       </c>
       <c r="D4">
-        <v>0.5777226357871519</v>
+        <v>0.6754862525901548</v>
       </c>
       <c r="E4">
-        <v>0.6566232998225902</v>
+        <v>0.6369707740916272</v>
       </c>
       <c r="F4">
-        <v>0.6425157941190134</v>
+        <v>0.5260674608486147</v>
       </c>
       <c r="G4">
-        <v>0.5166404354383893</v>
+        <v>0.5423534937276528</v>
       </c>
       <c r="H4">
-        <v>0.8818537598338725</v>
+        <v>0.7108915031827761</v>
       </c>
       <c r="I4">
-        <v>0.7397041783109536</v>
+        <v>0.5813389480251101</v>
       </c>
       <c r="J4">
-        <v>0.5411016949152542</v>
+        <v>0.5589668615984406</v>
       </c>
       <c r="K4">
-        <v>0.6117872262732076</v>
+        <v>0.4423275121671916</v>
       </c>
       <c r="L4">
-        <v>0.5084968130494519</v>
+        <v>0.5702891991042927</v>
       </c>
       <c r="M4">
-        <v>0.576531380879207</v>
+        <v>0.678411513859275</v>
       </c>
       <c r="N4">
-        <v>0.441432720232333</v>
+        <v>0.5641474422026235</v>
       </c>
       <c r="O4">
-        <v>0.7353169123242116</v>
+        <v>0.5704358843893728</v>
       </c>
       <c r="P4">
-        <v>0.5610776886512181</v>
+        <v>0.5925342809803348</v>
       </c>
       <c r="Q4">
-        <v>0.6184358181609986</v>
+        <v>0.5689002149014829</v>
       </c>
       <c r="R4">
-        <v>0.7597973940435281</v>
+        <v>0.6837735725080492</v>
       </c>
       <c r="S4">
-        <v>0.5970956954660309</v>
+        <v>0.5623711340206186</v>
       </c>
       <c r="T4">
-        <v>0.5490588706447738</v>
+        <v>0.5420716742676045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7193379790940766</v>
+        <v>0.5870772946859903</v>
       </c>
       <c r="C5">
-        <v>0.4462692334715099</v>
+        <v>0.6244470385844187</v>
       </c>
       <c r="D5">
-        <v>0.598686674782283</v>
+        <v>0.5718779866199426</v>
       </c>
       <c r="E5">
-        <v>0.5766594516594516</v>
+        <v>0.6830901757705522</v>
       </c>
       <c r="F5">
-        <v>0.5826592876401305</v>
+        <v>0.5541165587419057</v>
       </c>
       <c r="G5">
-        <v>0.5194232421776273</v>
+        <v>0.6372206319497964</v>
       </c>
       <c r="H5">
-        <v>0.3585131894484412</v>
+        <v>0.6265277039756534</v>
       </c>
       <c r="I5">
-        <v>0.6933080808080808</v>
+        <v>0.4891437308868501</v>
       </c>
       <c r="J5">
-        <v>0.5698620188816268</v>
+        <v>0.5666412795125666</v>
       </c>
       <c r="K5">
-        <v>0.4580097087378641</v>
+        <v>0.5668008110100762</v>
       </c>
       <c r="L5">
-        <v>0.5263157894736842</v>
+        <v>0.5408816210451475</v>
       </c>
       <c r="M5">
-        <v>0.5280982315556784</v>
+        <v>0.4815683646112601</v>
       </c>
       <c r="N5">
-        <v>0.8602409638554217</v>
+        <v>0.6111497005988025</v>
       </c>
       <c r="O5">
-        <v>0.7101957154192013</v>
+        <v>0.5841910251132153</v>
       </c>
       <c r="P5">
-        <v>0.6063404417364814</v>
+        <v>0.6100510085787155</v>
       </c>
       <c r="Q5">
-        <v>0.6298507462686567</v>
+        <v>0.5646666666666667</v>
       </c>
       <c r="R5">
-        <v>0.6907108554835828</v>
+        <v>0.4833535108958838</v>
       </c>
       <c r="S5">
-        <v>0.5696163080616863</v>
+        <v>0.5893665158371041</v>
       </c>
       <c r="T5">
-        <v>0.4466052934407365</v>
+        <v>0.5290919309906652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6848300404167271</v>
+        <v>0.5157700421940928</v>
       </c>
       <c r="C6">
-        <v>0.4002516616685081</v>
+        <v>0.7534893102057281</v>
       </c>
       <c r="D6">
-        <v>0.5813160515686383</v>
+        <v>0.5813390313390313</v>
       </c>
       <c r="E6">
-        <v>0.4746122200701126</v>
+        <v>0.5520121150034518</v>
       </c>
       <c r="F6">
-        <v>0.5276067323481116</v>
+        <v>0.7227635181656605</v>
       </c>
       <c r="G6">
-        <v>0.4269466073414906</v>
+        <v>0.6180057632002711</v>
       </c>
       <c r="H6">
-        <v>0.3012199735199546</v>
+        <v>0.4647808388885611</v>
       </c>
       <c r="I6">
-        <v>0.5099167689013977</v>
+        <v>0.3845267635590216</v>
       </c>
       <c r="J6">
-        <v>0.7286848072562357</v>
+        <v>0.7352130325814537</v>
       </c>
       <c r="K6">
-        <v>0.5195619283990072</v>
+        <v>0.7415966386554622</v>
       </c>
       <c r="L6">
-        <v>0.6841461550221679</v>
+        <v>0.4593255131964809</v>
       </c>
       <c r="M6">
-        <v>0.5007326007326007</v>
+        <v>0.2849563888139556</v>
       </c>
       <c r="N6">
-        <v>0.7195467422096318</v>
+        <v>0.506095498015157</v>
       </c>
       <c r="O6">
-        <v>0.5864662273476112</v>
+        <v>0.7819602272727273</v>
       </c>
       <c r="P6">
-        <v>0.3778297351630102</v>
+        <v>0.3854122321555272</v>
       </c>
       <c r="Q6">
-        <v>0.5642969451931716</v>
+        <v>0.4675289435600579</v>
       </c>
       <c r="R6">
-        <v>0.5119424054206663</v>
+        <v>0.4686026142029376</v>
       </c>
       <c r="S6">
-        <v>0.3783255893994149</v>
+        <v>0.3071232876712329</v>
       </c>
       <c r="T6">
-        <v>0.3864264689141501</v>
+        <v>0.3871944096344598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4703912427101803</v>
+        <v>0.6433959323946984</v>
       </c>
       <c r="C7">
-        <v>0.4821868368622619</v>
+        <v>0.6569157871283222</v>
       </c>
       <c r="D7">
-        <v>0.5133213694810354</v>
+        <v>0.5975398648423715</v>
       </c>
       <c r="E7">
-        <v>0.5120830787197848</v>
+        <v>0.6644777211126237</v>
       </c>
       <c r="F7">
-        <v>0.5274845495137792</v>
+        <v>0.6052942774913489</v>
       </c>
       <c r="G7">
-        <v>0.533605954011476</v>
+        <v>0.6999901434562475</v>
       </c>
       <c r="H7">
-        <v>0.6116383614151106</v>
+        <v>0.6439448357190736</v>
       </c>
       <c r="I7">
-        <v>0.6739499394905398</v>
+        <v>0.501264882937196</v>
       </c>
       <c r="J7">
-        <v>0.671958917320741</v>
+        <v>0.7021594736402605</v>
       </c>
       <c r="K7">
-        <v>0.6267305775673522</v>
+        <v>0.6019935859885974</v>
       </c>
       <c r="L7">
-        <v>0.674045702750964</v>
+        <v>0.5911801014794096</v>
       </c>
       <c r="M7">
-        <v>0.5226752815261646</v>
+        <v>0.3832532738605822</v>
       </c>
       <c r="N7">
-        <v>0.5119024198308086</v>
+        <v>0.5408273035794326</v>
       </c>
       <c r="O7">
-        <v>0.6358771747738791</v>
+        <v>0.5887942583693708</v>
       </c>
       <c r="P7">
-        <v>0.6025179147964407</v>
+        <v>0.5882632299622002</v>
       </c>
       <c r="Q7">
-        <v>0.6409861124277183</v>
+        <v>0.4875793721211934</v>
       </c>
       <c r="R7">
-        <v>0.6391491034916641</v>
+        <v>0.5404222063495112</v>
       </c>
       <c r="S7">
-        <v>0.5947549777043999</v>
+        <v>0.5133091671880176</v>
       </c>
       <c r="T7">
-        <v>0.567059915416914</v>
+        <v>0.5423075504914205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5119859649122807</v>
+        <v>0.6439102564102563</v>
       </c>
       <c r="C8">
-        <v>0.5089285714285714</v>
+        <v>0.6624686716791981</v>
       </c>
       <c r="D8">
-        <v>0.5844733242134064</v>
+        <v>0.6034909838990701</v>
       </c>
       <c r="E8">
-        <v>0.5636454457764917</v>
+        <v>0.6340877767249549</v>
       </c>
       <c r="F8">
-        <v>0.550859899328859</v>
+        <v>0.5014752288558673</v>
       </c>
       <c r="G8">
-        <v>0.4869876155590441</v>
+        <v>0.5734034699150978</v>
       </c>
       <c r="H8">
-        <v>0.5825873121131742</v>
+        <v>0.7082264652797569</v>
       </c>
       <c r="I8">
-        <v>0.6495295698924731</v>
+        <v>0.5299345749099973</v>
       </c>
       <c r="J8">
-        <v>0.5230651340996169</v>
+        <v>0.6563230240549829</v>
       </c>
       <c r="K8">
-        <v>0.5678823243374665</v>
+        <v>0.4877313495515493</v>
       </c>
       <c r="L8">
-        <v>0.5146191659291328</v>
+        <v>0.5913813459268005</v>
       </c>
       <c r="M8">
-        <v>0.5384615384615384</v>
+        <v>0.5983508179231863</v>
       </c>
       <c r="N8">
-        <v>0.7037312200759451</v>
+        <v>0.6287345889115801</v>
       </c>
       <c r="O8">
-        <v>0.5899011087803416</v>
+        <v>0.5608875128998968</v>
       </c>
       <c r="P8">
-        <v>0.6242307692307693</v>
+        <v>0.5810113519091847</v>
       </c>
       <c r="Q8">
-        <v>0.6054147465437788</v>
+        <v>0.5622727272727273</v>
       </c>
       <c r="R8">
-        <v>0.6804382442536694</v>
+        <v>0.5217339284413787</v>
       </c>
       <c r="S8">
-        <v>0.5692004504504504</v>
+        <v>0.6444608567208272</v>
       </c>
       <c r="T8">
-        <v>0.5362866678751559</v>
+        <v>0.547588424437299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.468880897306863</v>
+        <v>0.6500890471950134</v>
       </c>
       <c r="C9">
-        <v>0.6883523045643021</v>
+        <v>0.6900285009277147</v>
       </c>
       <c r="D9">
-        <v>0.6448918918918919</v>
+        <v>0.7062342143243731</v>
       </c>
       <c r="E9">
-        <v>0.6083003660992756</v>
+        <v>0.6429776353807648</v>
       </c>
       <c r="F9">
-        <v>0.6382980085342815</v>
+        <v>0.3619253635612349</v>
       </c>
       <c r="G9">
-        <v>0.4616323417238749</v>
+        <v>0.4852450296203127</v>
       </c>
       <c r="H9">
-        <v>0.6152998236331569</v>
+        <v>0.6816669650946812</v>
       </c>
       <c r="I9">
-        <v>0.6572383063083282</v>
+        <v>0.7186497898381307</v>
       </c>
       <c r="J9">
-        <v>0.4473170211469316</v>
+        <v>0.5933210630828822</v>
       </c>
       <c r="K9">
-        <v>0.5965188746438747</v>
+        <v>0.4251066160192025</v>
       </c>
       <c r="L9">
-        <v>0.3756236164799947</v>
+        <v>0.6456378986866792</v>
       </c>
       <c r="M9">
-        <v>0.6580453554528862</v>
+        <v>0.6064415739805971</v>
       </c>
       <c r="N9">
-        <v>0.659250819541057</v>
+        <v>0.6239407177223837</v>
       </c>
       <c r="O9">
-        <v>0.5922872340425532</v>
+        <v>0.659179592234904</v>
       </c>
       <c r="P9">
-        <v>0.6303977272727272</v>
+        <v>0.6348916423952213</v>
       </c>
       <c r="Q9">
-        <v>0.5712332406353509</v>
+        <v>0.6535167121510983</v>
       </c>
       <c r="R9">
-        <v>0.6403584615300957</v>
+        <v>0.6184766986324417</v>
       </c>
       <c r="S9">
-        <v>0.6114978481930007</v>
+        <v>0.5441387332177969</v>
       </c>
       <c r="T9">
-        <v>0.4784141477911399</v>
+        <v>0.5841772079966359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4914892968225895</v>
+        <v>0.5693328655494089</v>
       </c>
       <c r="C10">
-        <v>0.5027129620371611</v>
+        <v>0.554669083240623</v>
       </c>
       <c r="D10">
-        <v>0.5587636239443288</v>
+        <v>0.5714686728048507</v>
       </c>
       <c r="E10">
-        <v>0.5525904503350658</v>
+        <v>0.5729238496952042</v>
       </c>
       <c r="F10">
-        <v>0.5359982870602418</v>
+        <v>0.5266207606784707</v>
       </c>
       <c r="G10">
-        <v>0.529728765929509</v>
+        <v>0.5761648785492829</v>
       </c>
       <c r="H10">
-        <v>0.545660883137431</v>
+        <v>0.5699447346057567</v>
       </c>
       <c r="I10">
-        <v>0.6196766132941234</v>
+        <v>0.5240172940783557</v>
       </c>
       <c r="J10">
-        <v>0.5455541695895429</v>
+        <v>0.6903099700022377</v>
       </c>
       <c r="K10">
-        <v>0.6790483609823348</v>
+        <v>0.5300099103484003</v>
       </c>
       <c r="L10">
-        <v>0.5358025583000304</v>
+        <v>0.537155493609185</v>
       </c>
       <c r="M10">
-        <v>0.5277884256316787</v>
+        <v>0.7620249850388989</v>
       </c>
       <c r="N10">
-        <v>0.4285954678034553</v>
+        <v>0.5506296851574213</v>
       </c>
       <c r="O10">
-        <v>0.5291876689557724</v>
+        <v>0.5547401358754381</v>
       </c>
       <c r="P10">
-        <v>0.5714526268522676</v>
+        <v>0.5604579154735895</v>
       </c>
       <c r="Q10">
-        <v>0.5668052292782703</v>
+        <v>0.5252531902176412</v>
       </c>
       <c r="R10">
-        <v>0.5819865359418857</v>
+        <v>0.5074238658551936</v>
       </c>
       <c r="S10">
-        <v>0.5565562229542078</v>
+        <v>0.551069814010188</v>
       </c>
       <c r="T10">
-        <v>0.5267773972084865</v>
+        <v>0.5367255603362701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6164823603436989</v>
+        <v>0.664921025571232</v>
       </c>
       <c r="C11">
-        <v>0.3913575955770524</v>
+        <v>0.7167029406470405</v>
       </c>
       <c r="D11">
-        <v>0.5828411166335883</v>
+        <v>0.4976729153199742</v>
       </c>
       <c r="E11">
-        <v>0.5312938936726181</v>
+        <v>0.7238379200957461</v>
       </c>
       <c r="F11">
-        <v>0.4856550595962812</v>
+        <v>0.7511410159791758</v>
       </c>
       <c r="G11">
-        <v>0.4401091081593928</v>
+        <v>0.7276842463872759</v>
       </c>
       <c r="H11">
-        <v>0.5503274529470765</v>
+        <v>0.6557546363794098</v>
       </c>
       <c r="I11">
-        <v>0.7128616854793062</v>
+        <v>0.388195444545559</v>
       </c>
       <c r="J11">
-        <v>0.7317921382448109</v>
+        <v>0.8009116658160383</v>
       </c>
       <c r="K11">
-        <v>0.7127367589201499</v>
+        <v>0.7421080736182174</v>
       </c>
       <c r="L11">
-        <v>0.7809871521698992</v>
+        <v>0.4943744374437444</v>
       </c>
       <c r="M11">
-        <v>0.4580468485446327</v>
+        <v>0.633810959545694</v>
       </c>
       <c r="N11">
-        <v>0.6425720620842572</v>
+        <v>0.5678555757537768</v>
       </c>
       <c r="O11">
-        <v>0.645932025660005</v>
+        <v>0.6344045887247021</v>
       </c>
       <c r="P11">
-        <v>0.5920183458310926</v>
+        <v>0.6187811850311851</v>
       </c>
       <c r="Q11">
-        <v>0.7622629782490888</v>
+        <v>0.4277490810369267</v>
       </c>
       <c r="R11">
-        <v>0.6958196629067583</v>
+        <v>0.4086830301353057</v>
       </c>
       <c r="S11">
-        <v>0.5937054846808276</v>
+        <v>0.4690086784949054</v>
       </c>
       <c r="T11">
-        <v>0.5793915762541995</v>
+        <v>0.5674805861348167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4829985411289417</v>
+        <v>0.6140518097884473</v>
       </c>
       <c r="C12">
-        <v>0.5695660182082902</v>
+        <v>0.5669202176107131</v>
       </c>
       <c r="D12">
-        <v>0.5881999870222568</v>
+        <v>0.6910887573964497</v>
       </c>
       <c r="E12">
-        <v>0.5290924417541792</v>
+        <v>0.6161364443033008</v>
       </c>
       <c r="F12">
-        <v>0.6062662178273371</v>
+        <v>0.5039908503301159</v>
       </c>
       <c r="G12">
-        <v>0.4582278481012658</v>
+        <v>0.4905657749504698</v>
       </c>
       <c r="H12">
-        <v>0.6604071050695441</v>
+        <v>0.6456162063574779</v>
       </c>
       <c r="I12">
-        <v>0.6280968904586341</v>
+        <v>0.606862941618642</v>
       </c>
       <c r="J12">
-        <v>0.5635135704356862</v>
+        <v>0.527337559429477</v>
       </c>
       <c r="K12">
-        <v>0.4383560969607481</v>
+        <v>0.4618386762927219</v>
       </c>
       <c r="L12">
-        <v>0.4604103953441702</v>
+        <v>0.8009522934093207</v>
       </c>
       <c r="M12">
-        <v>0.7328113836627768</v>
+        <v>0.5277467953380858</v>
       </c>
       <c r="N12">
-        <v>0.6231930103256553</v>
+        <v>0.6009659268521412</v>
       </c>
       <c r="O12">
-        <v>0.6592874229157065</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="P12">
-        <v>0.6009593157651411</v>
+        <v>0.5685335932125659</v>
       </c>
       <c r="Q12">
-        <v>0.5349384602593471</v>
+        <v>0.5386377076501263</v>
       </c>
       <c r="R12">
-        <v>0.6218499654153304</v>
+        <v>0.5889090177133656</v>
       </c>
       <c r="S12">
-        <v>0.5759716018014878</v>
+        <v>0.5782225780624499</v>
       </c>
       <c r="T12">
-        <v>0.4600126200944472</v>
+        <v>0.5188483844241922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5179206161137441</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C13">
-        <v>0.5921474358974359</v>
+        <v>0.5547485160887223</v>
       </c>
       <c r="D13">
-        <v>0.5706056616194866</v>
+        <v>0.538169069721509</v>
       </c>
       <c r="E13">
-        <v>0.5320254862508383</v>
+        <v>0.5528822667318026</v>
       </c>
       <c r="F13">
-        <v>0.5581550802139037</v>
+        <v>0.5062367864693446</v>
       </c>
       <c r="G13">
-        <v>0.509317311041449</v>
+        <v>0.4914399624765479</v>
       </c>
       <c r="H13">
-        <v>0.4229074889867842</v>
+        <v>0.5805555555555555</v>
       </c>
       <c r="I13">
-        <v>0.617533718689788</v>
+        <v>0.5251587689301417</v>
       </c>
       <c r="J13">
-        <v>0.4729227761485826</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="K13">
-        <v>0.42152466367713</v>
+        <v>0.5090960451977401</v>
       </c>
       <c r="L13">
-        <v>0.4603858784893268</v>
+        <v>0.5283410138248847</v>
       </c>
       <c r="M13">
-        <v>0.5186393289841567</v>
+        <v>0.6913992869875223</v>
       </c>
       <c r="N13">
-        <v>0.7770673486786019</v>
+        <v>0.560985797827903</v>
       </c>
       <c r="O13">
-        <v>0.4225663716814159</v>
+        <v>0.5436699857752489</v>
       </c>
       <c r="P13">
-        <v>0.578125</v>
+        <v>0.5670242537313434</v>
       </c>
       <c r="Q13">
-        <v>0.5697492163009404</v>
+        <v>0.485479797979798</v>
       </c>
       <c r="R13">
-        <v>0.5931873479318734</v>
+        <v>0.5487668161434978</v>
       </c>
       <c r="S13">
-        <v>0.5662992125984252</v>
+        <v>0.5374031007751938</v>
       </c>
       <c r="T13">
-        <v>0.5041145490454246</v>
+        <v>0.5060182956186808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.5147172221017374</v>
+        <v>0.6385548107255521</v>
       </c>
       <c r="C14">
-        <v>0.5234995704094143</v>
+        <v>0.6172537286368376</v>
       </c>
       <c r="D14">
-        <v>0.7092338523200247</v>
+        <v>0.5965707458437135</v>
       </c>
       <c r="E14">
-        <v>0.5997704417230998</v>
+        <v>0.6067247159273506</v>
       </c>
       <c r="F14">
-        <v>0.5757759496692112</v>
+        <v>0.4564861673414305</v>
       </c>
       <c r="G14">
-        <v>0.5116439098396186</v>
+        <v>0.5031400000832615</v>
       </c>
       <c r="H14">
-        <v>0.6644610663598005</v>
+        <v>0.631634561352532</v>
       </c>
       <c r="I14">
-        <v>0.6131004071865531</v>
+        <v>0.5532156230068956</v>
       </c>
       <c r="J14">
-        <v>0.4975818196186455</v>
+        <v>0.6216484607745779</v>
       </c>
       <c r="K14">
-        <v>0.5895403419562928</v>
+        <v>0.4062607855318562</v>
       </c>
       <c r="L14">
-        <v>0.5351140781167094</v>
+        <v>0.6179756827495594</v>
       </c>
       <c r="M14">
-        <v>0.5782733334244839</v>
+        <v>0.6299769900678648</v>
       </c>
       <c r="N14">
-        <v>0.7442776735459662</v>
+        <v>0.7213738935821312</v>
       </c>
       <c r="O14">
-        <v>0.5852804726420759</v>
+        <v>0.6256205521120294</v>
       </c>
       <c r="P14">
-        <v>0.5720811932042671</v>
+        <v>0.5927700470869351</v>
       </c>
       <c r="Q14">
-        <v>0.6228326537213089</v>
+        <v>0.6078814105307737</v>
       </c>
       <c r="R14">
-        <v>0.5947762964330975</v>
+        <v>0.5589279135453764</v>
       </c>
       <c r="S14">
-        <v>0.5763995535714286</v>
+        <v>0.5627662774481118</v>
       </c>
       <c r="T14">
-        <v>0.5128095898553596</v>
+        <v>0.5137533318337179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.4507702123780877</v>
+        <v>0.6610200507596851</v>
       </c>
       <c r="C15">
-        <v>0.5677667081776671</v>
+        <v>0.6688323055814027</v>
       </c>
       <c r="D15">
-        <v>0.626981473267597</v>
+        <v>0.6825296108291032</v>
       </c>
       <c r="E15">
-        <v>0.7358177862327744</v>
+        <v>0.6563520026138808</v>
       </c>
       <c r="F15">
-        <v>0.5850657949430529</v>
+        <v>0.5310203886892078</v>
       </c>
       <c r="G15">
-        <v>0.5285647145466614</v>
+        <v>0.5770666221033868</v>
       </c>
       <c r="H15">
-        <v>0.6067456008464194</v>
+        <v>0.6874066377014987</v>
       </c>
       <c r="I15">
-        <v>0.7020540024756832</v>
+        <v>0.5567746047668307</v>
       </c>
       <c r="J15">
-        <v>0.5610485630622227</v>
+        <v>0.6886453227900666</v>
       </c>
       <c r="K15">
-        <v>0.6867111944965603</v>
+        <v>0.4555390718489254</v>
       </c>
       <c r="L15">
-        <v>0.5561216071281248</v>
+        <v>0.6499368686868687</v>
       </c>
       <c r="M15">
-        <v>0.5785853303421533</v>
+        <v>0.5806317294941367</v>
       </c>
       <c r="N15">
-        <v>0.3208056478405316</v>
+        <v>0.6462955283710001</v>
       </c>
       <c r="O15">
-        <v>0.5963698616080285</v>
+        <v>0.7494252007364524</v>
       </c>
       <c r="P15">
-        <v>0.6794178794178795</v>
+        <v>0.6297331109257716</v>
       </c>
       <c r="Q15">
-        <v>0.6827217515565989</v>
+        <v>0.6226870184063262</v>
       </c>
       <c r="R15">
-        <v>0.6997538763204838</v>
+        <v>0.5828512606382208</v>
       </c>
       <c r="S15">
-        <v>0.6169865030143629</v>
+        <v>0.6339109608340378</v>
       </c>
       <c r="T15">
-        <v>0.5343908705812273</v>
+        <v>0.501072169645466</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.4877622377622378</v>
+        <v>0.5040816326530613</v>
       </c>
       <c r="C16">
-        <v>0.4960199004975124</v>
+        <v>0.632416899658279</v>
       </c>
       <c r="D16">
-        <v>0.4991582491582491</v>
+        <v>0.5660745779793399</v>
       </c>
       <c r="E16">
-        <v>0.6392473118279569</v>
+        <v>0.6233068448618386</v>
       </c>
       <c r="F16">
-        <v>0.5193634969325154</v>
+        <v>0.5583720930232559</v>
       </c>
       <c r="G16">
-        <v>0.4354636591478697</v>
+        <v>0.6006020848310567</v>
       </c>
       <c r="H16">
-        <v>0.7976190476190477</v>
+        <v>0.7299442299442299</v>
       </c>
       <c r="I16">
-        <v>0.7007909948281107</v>
+        <v>0.5008699633699634</v>
       </c>
       <c r="J16">
-        <v>0.5596023181454836</v>
+        <v>0.6245576786978061</v>
       </c>
       <c r="K16">
-        <v>0.6753401360544218</v>
+        <v>0.5440074906367041</v>
       </c>
       <c r="L16">
-        <v>0.7836493987049029</v>
+        <v>0.5376602564102564</v>
       </c>
       <c r="M16">
-        <v>0.5377406281661601</v>
+        <v>0.6097241620111732</v>
       </c>
       <c r="N16">
-        <v>0.2962085308056872</v>
+        <v>0.6289621676891615</v>
       </c>
       <c r="O16">
-        <v>0.6933443344334433</v>
+        <v>0.5660079051383399</v>
       </c>
       <c r="P16">
-        <v>0.6468596059113301</v>
+        <v>0.7210144927536233</v>
       </c>
       <c r="Q16">
-        <v>0.716284074605452</v>
+        <v>0.4362444671433435</v>
       </c>
       <c r="R16">
-        <v>0.6399453551912568</v>
+        <v>0.5772827282728272</v>
       </c>
       <c r="S16">
-        <v>0.7104430379746836</v>
+        <v>0.5803140096618358</v>
       </c>
       <c r="T16">
-        <v>0.5343478260869565</v>
+        <v>0.5876788403614458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.4437036171331736</v>
+        <v>0.619912379875636</v>
       </c>
       <c r="C17">
-        <v>0.6268363636363636</v>
+        <v>0.5007763975155279</v>
       </c>
       <c r="D17">
-        <v>0.6400620940863939</v>
+        <v>0.6223985890652557</v>
       </c>
       <c r="E17">
-        <v>0.5345319634703196</v>
+        <v>0.539477657004831</v>
       </c>
       <c r="F17">
-        <v>0.7101475008011641</v>
+        <v>0.5010869565217391</v>
       </c>
       <c r="G17">
-        <v>0.5414965670810912</v>
+        <v>0.4938796498357037</v>
       </c>
       <c r="H17">
-        <v>0.4992857142857143</v>
+        <v>0.6338421444527178</v>
       </c>
       <c r="I17">
-        <v>0.6261528028933092</v>
+        <v>0.6062202337999711</v>
       </c>
       <c r="J17">
-        <v>0.497722336988188</v>
+        <v>0.5367934224049331</v>
       </c>
       <c r="K17">
-        <v>0.5046099054719745</v>
+        <v>0.4314563873174582</v>
       </c>
       <c r="L17">
-        <v>0.4544977180154095</v>
+        <v>0.6092794834810082</v>
       </c>
       <c r="M17">
-        <v>0.5829113149847095</v>
+        <v>0.2492877492877493</v>
       </c>
       <c r="N17">
-        <v>0.7496433666191156</v>
+        <v>0.6182585300232359</v>
       </c>
       <c r="O17">
-        <v>0.6162807318467696</v>
+        <v>0.4725829725829725</v>
       </c>
       <c r="P17">
-        <v>0.570168964335609</v>
+        <v>0.5484009695832356</v>
       </c>
       <c r="Q17">
-        <v>0.5833896396396396</v>
+        <v>0.6977564102564102</v>
       </c>
       <c r="R17">
-        <v>0.5891646447140382</v>
+        <v>0.579477232428151</v>
       </c>
       <c r="S17">
-        <v>0.5477564102564103</v>
+        <v>0.5202610774039346</v>
       </c>
       <c r="T17">
-        <v>0.4441017316017316</v>
+        <v>0.4815440194769497</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.5293487663220332</v>
+        <v>0.6658306492124937</v>
       </c>
       <c r="C18">
-        <v>0.686611453423088</v>
+        <v>0.5879098214920703</v>
       </c>
       <c r="D18">
-        <v>0.6408702408702409</v>
+        <v>0.6536460574388021</v>
       </c>
       <c r="E18">
-        <v>0.6220158615717376</v>
+        <v>0.6808447978796024</v>
       </c>
       <c r="F18">
-        <v>0.6512144380666393</v>
+        <v>0.5454771595468206</v>
       </c>
       <c r="G18">
-        <v>0.5498514731969476</v>
+        <v>0.4936146071394084</v>
       </c>
       <c r="H18">
-        <v>0.832264479244345</v>
+        <v>0.7260153786895303</v>
       </c>
       <c r="I18">
-        <v>0.6918504018133114</v>
+        <v>0.6569741624590892</v>
       </c>
       <c r="J18">
-        <v>0.5600230249563538</v>
+        <v>0.6085883193659456</v>
       </c>
       <c r="K18">
-        <v>0.6322319428791532</v>
+        <v>0.413642413657801</v>
       </c>
       <c r="L18">
-        <v>0.5189177328030408</v>
+        <v>0.6465908499791927</v>
       </c>
       <c r="M18">
-        <v>0.6665201834116314</v>
+        <v>0.5135015493581231</v>
       </c>
       <c r="N18">
-        <v>0.4179917643332277</v>
+        <v>0.6650436839098597</v>
       </c>
       <c r="O18">
-        <v>0.7551492606071775</v>
+        <v>0.6553811659192825</v>
       </c>
       <c r="P18">
-        <v>0.6395752190847127</v>
+        <v>0.6275103673337545</v>
       </c>
       <c r="Q18">
-        <v>0.6649274489576313</v>
+        <v>0.6235595859058974</v>
       </c>
       <c r="R18">
-        <v>0.7231659550442853</v>
+        <v>0.7141408222142085</v>
       </c>
       <c r="S18">
-        <v>0.6190476190476191</v>
+        <v>0.5474827768945416</v>
       </c>
       <c r="T18">
-        <v>0.535882972119511</v>
+        <v>0.5918956043956044</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5700687466948704</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C19">
-        <v>0.8241758241758241</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="D19">
-        <v>0.6643734643734643</v>
+        <v>0.4277777777777778</v>
       </c>
       <c r="E19">
-        <v>0.5948051948051949</v>
+        <v>0.6709219858156028</v>
       </c>
       <c r="F19">
-        <v>0.5442670537010159</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="G19">
-        <v>0.7288461538461539</v>
+        <v>0.5457429931253305</v>
       </c>
       <c r="H19">
+        <v>0.6275862068965516</v>
+      </c>
+      <c r="I19">
+        <v>0.6591760299625469</v>
+      </c>
+      <c r="J19">
+        <v>0.1793478260869565</v>
+      </c>
+      <c r="K19">
+        <v>0.1793478260869565</v>
+      </c>
+      <c r="L19">
+        <v>0.5890243902439025</v>
+      </c>
+      <c r="M19">
         <v>0.3206521739130435</v>
       </c>
-      <c r="I19">
-        <v>0.8277777777777777</v>
-      </c>
-      <c r="J19">
-        <v>0.4524765729585007</v>
-      </c>
-      <c r="K19">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="L19">
-        <v>0.4244186046511628</v>
-      </c>
-      <c r="M19">
-        <v>0.5740384615384615</v>
-      </c>
       <c r="N19">
-        <v>0.3206521739130435</v>
+        <v>0.6451219512195122</v>
       </c>
       <c r="O19">
-        <v>0.3206521739130435</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="P19">
-        <v>0.5568181818181819</v>
+        <v>0.5863636363636364</v>
       </c>
       <c r="Q19">
-        <v>0.6279761904761905</v>
+        <v>0.5665215287856797</v>
       </c>
       <c r="R19">
-        <v>0.6675824175824177</v>
+        <v>0.6091030789825971</v>
       </c>
       <c r="S19">
-        <v>0.5892597968069666</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="T19">
-        <v>0.5488215488215489</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2876,61 +2876,61 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.475922131147541</v>
+        <v>0.4928861788617886</v>
       </c>
       <c r="C20">
-        <v>0.6809815950920246</v>
+        <v>0.8284023668639053</v>
       </c>
       <c r="D20">
-        <v>0.4434931506849315</v>
+        <v>0.6626746506986028</v>
       </c>
       <c r="E20">
-        <v>0.4979619565217391</v>
+        <v>0.6581995529363951</v>
       </c>
       <c r="F20">
-        <v>0.4534752459280761</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="G20">
-        <v>0.8303571428571428</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="H20">
-        <v>0.5459401709401709</v>
+        <v>0.6489540387845473</v>
       </c>
       <c r="I20">
-        <v>0.5069860279441117</v>
+        <v>0.5310344827586206</v>
       </c>
       <c r="J20">
-        <v>0.4594675891111445</v>
+        <v>0.8284023668639053</v>
       </c>
       <c r="K20">
-        <v>0.5576433744372675</v>
+        <v>0.475</v>
       </c>
       <c r="L20">
-        <v>0.6512866015971606</v>
+        <v>0.8284023668639053</v>
       </c>
       <c r="M20">
-        <v>0.5802469135802469</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="N20">
-        <v>0.1735294117647059</v>
+        <v>0.5655913978494624</v>
       </c>
       <c r="O20">
-        <v>0.6164908916586769</v>
+        <v>0.3264705882352941</v>
       </c>
       <c r="P20">
-        <v>0.8303571428571428</v>
+        <v>0.6378748370273795</v>
       </c>
       <c r="Q20">
-        <v>0.6303030303030304</v>
+        <v>0.3254437869822485</v>
       </c>
       <c r="R20">
-        <v>0.5964444444444444</v>
+        <v>0.514315383474262</v>
       </c>
       <c r="S20">
-        <v>0.6013546202225448</v>
+        <v>0.7063253012048193</v>
       </c>
       <c r="T20">
-        <v>0.7280505952380952</v>
+        <v>0.6865021770682148</v>
       </c>
     </row>
   </sheetData>
@@ -3010,1118 +3010,1118 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4903276210533467</v>
+        <v>0.7346125104026903</v>
       </c>
       <c r="C2">
-        <v>0.5439035989062314</v>
+        <v>0.5721904244297628</v>
       </c>
       <c r="D2">
-        <v>0.6189728086414511</v>
+        <v>0.514440632483568</v>
       </c>
       <c r="E2">
-        <v>0.5872849403012959</v>
+        <v>0.639744221199409</v>
       </c>
       <c r="F2">
-        <v>0.5048404354693524</v>
+        <v>0.5119822007846601</v>
       </c>
       <c r="G2">
-        <v>0.5516143276889893</v>
+        <v>0.5715620170179521</v>
       </c>
       <c r="H2">
-        <v>0.5304650214847398</v>
+        <v>0.6418672192122827</v>
       </c>
       <c r="I2">
-        <v>0.5961803019752373</v>
+        <v>0.5438059409976392</v>
       </c>
       <c r="J2">
-        <v>0.5745214762478982</v>
+        <v>0.5124747363236468</v>
       </c>
       <c r="K2">
-        <v>0.5761349547376824</v>
+        <v>0.4945523870989657</v>
       </c>
       <c r="L2">
-        <v>0.5283292854837888</v>
+        <v>0.5476528133969667</v>
       </c>
       <c r="M2">
-        <v>0.596439307732808</v>
+        <v>0.5054348749129571</v>
       </c>
       <c r="N2">
-        <v>0.5</v>
+        <v>0.5380993223390343</v>
       </c>
       <c r="O2">
-        <v>0.5389824895123898</v>
+        <v>0.5120628747091492</v>
       </c>
       <c r="P2">
-        <v>0.6702347186603034</v>
+        <v>0.6153085140712309</v>
       </c>
       <c r="Q2">
-        <v>0.5529730464172286</v>
+        <v>0.5176930654392907</v>
       </c>
       <c r="R2">
-        <v>0.6542188216511829</v>
+        <v>0.574224256526096</v>
       </c>
       <c r="S2">
-        <v>0.597161127057185</v>
+        <v>0.4897161976256391</v>
       </c>
       <c r="T2">
-        <v>0.573464223237487</v>
+        <v>0.5800582550654733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5130832282471627</v>
+        <v>0.6992433795712485</v>
       </c>
       <c r="C3">
-        <v>0.584016393442623</v>
+        <v>0.7154791929382094</v>
       </c>
       <c r="D3">
-        <v>0.630201765447667</v>
+        <v>0.6011979823455234</v>
       </c>
       <c r="E3">
-        <v>0.5331021437578815</v>
+        <v>0.7637137452711223</v>
       </c>
       <c r="F3">
-        <v>0.5731399747793191</v>
+        <v>0.5085119798234552</v>
       </c>
       <c r="G3">
-        <v>0.5583228247162673</v>
+        <v>0.5633669609079445</v>
       </c>
       <c r="H3">
-        <v>0.5151324085750315</v>
+        <v>0.7175283732660782</v>
       </c>
       <c r="I3">
-        <v>0.7337641866330391</v>
+        <v>0.5523329129886507</v>
       </c>
       <c r="J3">
-        <v>0.6147540983606558</v>
+        <v>0.5873266078184111</v>
       </c>
       <c r="K3">
-        <v>0.5433480453972257</v>
+        <v>0.5967843631778058</v>
       </c>
       <c r="L3">
-        <v>0.4954287515762925</v>
+        <v>0.5562736443883984</v>
       </c>
       <c r="M3">
-        <v>0.619640605296343</v>
+        <v>0.6024590163934427</v>
       </c>
       <c r="N3">
-        <v>0.5055170239596469</v>
+        <v>0.6743379571248425</v>
       </c>
       <c r="O3">
-        <v>0.5034678436317781</v>
+        <v>0.6669293820933165</v>
       </c>
       <c r="P3">
-        <v>0.5709331651954603</v>
+        <v>0.6927805800756621</v>
       </c>
       <c r="Q3">
-        <v>0.637452711223203</v>
+        <v>0.5931588902900378</v>
       </c>
       <c r="R3">
-        <v>0.6918348045397226</v>
+        <v>0.5179697351828499</v>
       </c>
       <c r="S3">
-        <v>0.6935687263556116</v>
+        <v>0.5093001261034048</v>
       </c>
       <c r="T3">
-        <v>0.5209646910466582</v>
+        <v>0.6297288776796973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4790760475569088</v>
+        <v>0.619182253153545</v>
       </c>
       <c r="C4">
-        <v>0.7031906988545744</v>
+        <v>0.6632956357836741</v>
       </c>
       <c r="D4">
-        <v>0.6788186892851965</v>
+        <v>0.8653037552559084</v>
       </c>
       <c r="E4">
-        <v>0.7160042409743367</v>
+        <v>0.8142761345512541</v>
       </c>
       <c r="F4">
-        <v>0.7224110120342178</v>
+        <v>0.5529442148760331</v>
       </c>
       <c r="G4">
-        <v>0.5183956792808467</v>
+        <v>0.6013302885312455</v>
       </c>
       <c r="H4">
-        <v>0.6732999855009424</v>
+        <v>0.8518604103233289</v>
       </c>
       <c r="I4">
-        <v>0.8186802232854864</v>
+        <v>0.6890405248658837</v>
       </c>
       <c r="J4">
-        <v>0.5953720820646657</v>
+        <v>0.5038377192982456</v>
       </c>
       <c r="K4">
-        <v>0.6775454907930984</v>
+        <v>0.4817447803392779</v>
       </c>
       <c r="L4">
-        <v>0.5149068435551689</v>
+        <v>0.6336903726257793</v>
       </c>
       <c r="M4">
-        <v>0.6841380310279832</v>
+        <v>0.5454953240539365</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>0.6406544512106713</v>
       </c>
       <c r="O4">
-        <v>0.6513293823401478</v>
+        <v>0.6279541829781063</v>
       </c>
       <c r="P4">
-        <v>0.5745206249093809</v>
+        <v>0.7236932724372915</v>
       </c>
       <c r="Q4">
-        <v>0.6874546904451211</v>
+        <v>0.6516601420907642</v>
       </c>
       <c r="R4">
-        <v>0.8288431564448311</v>
+        <v>0.7534480571262868</v>
       </c>
       <c r="S4">
-        <v>0.7346989633173844</v>
+        <v>0.5345394736842105</v>
       </c>
       <c r="T4">
-        <v>0.6065680730752501</v>
+        <v>0.5789156517326374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5178419590726149</v>
+        <v>0.5613060484099541</v>
       </c>
       <c r="C5">
-        <v>0.4566492829204694</v>
+        <v>0.6148177540955728</v>
       </c>
       <c r="D5">
-        <v>0.6194801881979479</v>
+        <v>0.5511592313360921</v>
       </c>
       <c r="E5">
-        <v>0.518068703588232</v>
+        <v>0.7084348959809534</v>
       </c>
       <c r="F5">
-        <v>0.5990590102601894</v>
+        <v>0.5596904937361827</v>
       </c>
       <c r="G5">
-        <v>0.5217816450314607</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.6484751431324756</v>
       </c>
       <c r="I5">
-        <v>0.6952695425429398</v>
+        <v>0.4909443909075449</v>
       </c>
       <c r="J5">
-        <v>0.581798084008843</v>
+        <v>0.509920072558245</v>
       </c>
       <c r="K5">
-        <v>0.4975483249248909</v>
+        <v>0.5616319936511536</v>
       </c>
       <c r="L5">
-        <v>0.5053568391814524</v>
+        <v>0.5130378096479792</v>
       </c>
       <c r="M5">
-        <v>0.5230570829318066</v>
+        <v>0.4914262230032311</v>
       </c>
       <c r="N5">
-        <v>0.5084745762711864</v>
+        <v>0.6315259905901026</v>
       </c>
       <c r="O5">
-        <v>0.5450513009466583</v>
+        <v>0.557961566804603</v>
       </c>
       <c r="P5">
-        <v>0.5158296014965138</v>
+        <v>0.6345303554220283</v>
       </c>
       <c r="Q5">
-        <v>0.5221926194660167</v>
+        <v>0.528867411144493</v>
       </c>
       <c r="R5">
-        <v>0.6935973017402641</v>
+        <v>0.4992205657275665</v>
       </c>
       <c r="S5">
-        <v>0.5854685108553936</v>
+        <v>0.5257496740547588</v>
       </c>
       <c r="T5">
-        <v>0.4868488180942124</v>
+        <v>0.533742418230259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6865361176566183</v>
+        <v>0.5060737791500771</v>
       </c>
       <c r="C6">
-        <v>0.4075688632485577</v>
+        <v>0.5510603721459332</v>
       </c>
       <c r="D6">
-        <v>0.5477654993093362</v>
+        <v>0.5023198179897619</v>
       </c>
       <c r="E6">
-        <v>0.4742260502153246</v>
+        <v>0.5379540099130576</v>
       </c>
       <c r="F6">
-        <v>0.5229503534573819</v>
+        <v>0.7260867798813684</v>
       </c>
       <c r="G6">
-        <v>0.4679816364670513</v>
+        <v>0.6131348013325749</v>
       </c>
       <c r="H6">
-        <v>0.4146055090598846</v>
+        <v>0.4708946128219712</v>
       </c>
       <c r="I6">
-        <v>0.5066994393434631</v>
+        <v>0.3888315592752092</v>
       </c>
       <c r="J6">
-        <v>0.7294466563744211</v>
+        <v>0.5533801901356952</v>
       </c>
       <c r="K6">
-        <v>0.5187007394165922</v>
+        <v>0.6373608515478996</v>
       </c>
       <c r="L6">
-        <v>0.6565938084017227</v>
+        <v>0.4943649955309986</v>
       </c>
       <c r="M6">
-        <v>0.5005687819939871</v>
+        <v>0.4611359388965629</v>
       </c>
       <c r="N6">
-        <v>0.5012594458438288</v>
+        <v>0.5043918095392865</v>
       </c>
       <c r="O6">
-        <v>0.5426464613634517</v>
+        <v>0.5048387096774194</v>
       </c>
       <c r="P6">
-        <v>0.4772852847972698</v>
+        <v>0.3950190948240839</v>
       </c>
       <c r="Q6">
-        <v>0.56512553831153</v>
+        <v>0.4970829609165516</v>
       </c>
       <c r="R6">
-        <v>0.5120297391728285</v>
+        <v>0.4772812220687414</v>
       </c>
       <c r="S6">
-        <v>0.3850979117575364</v>
+        <v>0.4485171040871049</v>
       </c>
       <c r="T6">
-        <v>0.3865076785569188</v>
+        <v>0.4136913951409766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4973823849994172</v>
+        <v>0.5870860550865681</v>
       </c>
       <c r="C7">
-        <v>0.4819337520055745</v>
+        <v>0.664179589856132</v>
       </c>
       <c r="D7">
-        <v>0.514024405617326</v>
+        <v>0.5224828966652745</v>
       </c>
       <c r="E7">
-        <v>0.5120371923308951</v>
+        <v>0.6331067504595784</v>
       </c>
       <c r="F7">
-        <v>0.5285056492251567</v>
+        <v>0.6008101041126563</v>
       </c>
       <c r="G7">
-        <v>0.5203517168375447</v>
+        <v>0.7098146083653329</v>
       </c>
       <c r="H7">
-        <v>0.545634287714575</v>
+        <v>0.6369267053183945</v>
       </c>
       <c r="I7">
-        <v>0.6830371057317319</v>
+        <v>0.5007796665164883</v>
       </c>
       <c r="J7">
-        <v>0.6754538325976058</v>
+        <v>0.6910736542325615</v>
       </c>
       <c r="K7">
-        <v>0.61824750333151</v>
+        <v>0.5769185094566651</v>
       </c>
       <c r="L7">
-        <v>0.5368610982308558</v>
+        <v>0.5183789367449749</v>
       </c>
       <c r="M7">
-        <v>0.5182543362612619</v>
+        <v>0.4477816181035368</v>
       </c>
       <c r="N7">
-        <v>0.5001768522994635</v>
+        <v>0.5232977326731334</v>
       </c>
       <c r="O7">
-        <v>0.612655371504929</v>
+        <v>0.5809610826283906</v>
       </c>
       <c r="P7">
-        <v>0.5133196455499905</v>
+        <v>0.533445729546794</v>
       </c>
       <c r="Q7">
-        <v>0.5326065032682963</v>
+        <v>0.4941176513576154</v>
       </c>
       <c r="R7">
-        <v>0.64547179552951</v>
+        <v>0.5422877964240027</v>
       </c>
       <c r="S7">
-        <v>0.5588866088096561</v>
+        <v>0.501321459382252</v>
       </c>
       <c r="T7">
-        <v>0.5630208053576016</v>
+        <v>0.5197052376416235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5036746987951808</v>
+        <v>0.5888726333907057</v>
       </c>
       <c r="C8">
-        <v>0.5068932874354561</v>
+        <v>0.6115748709122203</v>
       </c>
       <c r="D8">
-        <v>0.5637693631669536</v>
+        <v>0.5424268502581755</v>
       </c>
       <c r="E8">
-        <v>0.5635972461273666</v>
+        <v>0.6071686746987952</v>
       </c>
       <c r="F8">
-        <v>0.5500860585197934</v>
+        <v>0.5012994836488812</v>
       </c>
       <c r="G8">
-        <v>0.496790017211704</v>
+        <v>0.5684509466437178</v>
       </c>
       <c r="H8">
-        <v>0.5257228915662651</v>
+        <v>0.7075043029259898</v>
       </c>
       <c r="I8">
-        <v>0.6187177280550775</v>
+        <v>0.5297676419965577</v>
       </c>
       <c r="J8">
-        <v>0.5207228915662651</v>
+        <v>0.5782960413080895</v>
       </c>
       <c r="K8">
-        <v>0.5600688468158348</v>
+        <v>0.4964802065404475</v>
       </c>
       <c r="L8">
-        <v>0.5117986230636833</v>
+        <v>0.5366351118760757</v>
       </c>
       <c r="M8">
-        <v>0.537487091222031</v>
+        <v>0.5380808950086059</v>
       </c>
       <c r="N8">
-        <v>0.5106196213425129</v>
+        <v>0.573235800344234</v>
       </c>
       <c r="O8">
-        <v>0.5335628227194492</v>
+        <v>0.5066006884681583</v>
       </c>
       <c r="P8">
-        <v>0.52223752151463</v>
+        <v>0.5162134251290877</v>
       </c>
       <c r="Q8">
-        <v>0.5976419965576591</v>
+        <v>0.5389070567986231</v>
       </c>
       <c r="R8">
-        <v>0.6794320137693632</v>
+        <v>0.5179776247848538</v>
       </c>
       <c r="S8">
-        <v>0.5317297762478486</v>
+        <v>0.5042082616179001</v>
       </c>
       <c r="T8">
-        <v>0.5292857142857142</v>
+        <v>0.5152839931153184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4875271196583415</v>
+        <v>0.5132541309560038</v>
       </c>
       <c r="C9">
-        <v>0.6850317572280427</v>
+        <v>0.5078121129624693</v>
       </c>
       <c r="D9">
-        <v>0.5674509840926838</v>
+        <v>0.6150636284785704</v>
       </c>
       <c r="E9">
-        <v>0.5992837028841398</v>
+        <v>0.6251027185319566</v>
       </c>
       <c r="F9">
-        <v>0.6359167683039509</v>
+        <v>0.35915785351492</v>
       </c>
       <c r="G9">
-        <v>0.4926825087148565</v>
+        <v>0.4848621389517323</v>
       </c>
       <c r="H9">
-        <v>0.5057577423233379</v>
+        <v>0.6858932167630353</v>
       </c>
       <c r="I9">
-        <v>0.6057798390946143</v>
+        <v>0.7153294974596576</v>
       </c>
       <c r="J9">
-        <v>0.4456167790771098</v>
+        <v>0.5202146139080696</v>
       </c>
       <c r="K9">
-        <v>0.5340998003426966</v>
+        <v>0.4494565845626137</v>
       </c>
       <c r="L9">
-        <v>0.3904703938651185</v>
+        <v>0.5400431240902774</v>
       </c>
       <c r="M9">
-        <v>0.6534101766247614</v>
+        <v>0.5291012904986242</v>
       </c>
       <c r="N9">
-        <v>0.5062649457921378</v>
+        <v>0.5519384215670778</v>
       </c>
       <c r="O9">
-        <v>0.5065488224622723</v>
+        <v>0.5051325845594682</v>
       </c>
       <c r="P9">
-        <v>0.5216564085748054</v>
+        <v>0.5322310111278081</v>
       </c>
       <c r="Q9">
-        <v>0.5689478240971189</v>
+        <v>0.531274008613809</v>
       </c>
       <c r="R9">
-        <v>0.6420802734023288</v>
+        <v>0.5969084965624187</v>
       </c>
       <c r="S9">
-        <v>0.5727113524718108</v>
+        <v>0.5341072707813843</v>
       </c>
       <c r="T9">
-        <v>0.4779527695275301</v>
+        <v>0.5291209495478025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4978482804643705</v>
+        <v>0.6051253635539982</v>
       </c>
       <c r="C10">
-        <v>0.5035477545535865</v>
+        <v>0.6104400825388615</v>
       </c>
       <c r="D10">
-        <v>0.5959672052552839</v>
+        <v>0.5005888510861031</v>
       </c>
       <c r="E10">
-        <v>0.5880301792734697</v>
+        <v>0.5859650630441232</v>
       </c>
       <c r="F10">
-        <v>0.5424359798549916</v>
+        <v>0.5470156243671791</v>
       </c>
       <c r="G10">
-        <v>0.508303792268838</v>
+        <v>0.5351008083043782</v>
       </c>
       <c r="H10">
-        <v>0.5878098419595024</v>
+        <v>0.6407490296831932</v>
       </c>
       <c r="I10">
-        <v>0.6363913671768433</v>
+        <v>0.5342406344563357</v>
       </c>
       <c r="J10">
-        <v>0.5906372728706226</v>
+        <v>0.8035295293118013</v>
       </c>
       <c r="K10">
-        <v>0.6905864313331893</v>
+        <v>0.5606918540261954</v>
       </c>
       <c r="L10">
-        <v>0.5004586120486426</v>
+        <v>0.501962014607742</v>
       </c>
       <c r="M10">
-        <v>0.5069302175742316</v>
+        <v>0.5007201180559824</v>
       </c>
       <c r="N10">
-        <v>0.4999345721015441</v>
+        <v>0.5130174791684355</v>
       </c>
       <c r="O10">
-        <v>0.5563279725287117</v>
+        <v>0.5155693727946995</v>
       </c>
       <c r="P10">
-        <v>0.5004579952891913</v>
+        <v>0.5109908590081726</v>
       </c>
       <c r="Q10">
-        <v>0.5382468982653229</v>
+        <v>0.5012421021382434</v>
       </c>
       <c r="R10">
-        <v>0.6535249961298344</v>
+        <v>0.5010427346456193</v>
       </c>
       <c r="S10">
-        <v>0.5450059650918262</v>
+        <v>0.505494915537877</v>
       </c>
       <c r="T10">
-        <v>0.536404483594507</v>
+        <v>0.5193572009646941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5390105047806009</v>
+        <v>0.6488713311543997</v>
       </c>
       <c r="C11">
-        <v>0.3864011165968367</v>
+        <v>0.7372533662988756</v>
       </c>
       <c r="D11">
-        <v>0.5624958942372581</v>
+        <v>0.4997542940946121</v>
       </c>
       <c r="E11">
-        <v>0.528720716846979</v>
+        <v>0.7374261282636014</v>
       </c>
       <c r="F11">
-        <v>0.484319185621427</v>
+        <v>0.7379640365043898</v>
       </c>
       <c r="G11">
-        <v>0.4961224536805977</v>
+        <v>0.6528077445136345</v>
       </c>
       <c r="H11">
-        <v>0.5232874596995392</v>
+        <v>0.6615955697860225</v>
       </c>
       <c r="I11">
-        <v>0.7181621027647886</v>
+        <v>0.4136318148196493</v>
       </c>
       <c r="J11">
-        <v>0.7239285132318602</v>
+        <v>0.8294673044782461</v>
       </c>
       <c r="K11">
-        <v>0.670871394287167</v>
+        <v>0.7580044244125881</v>
       </c>
       <c r="L11">
-        <v>0.6778727328724642</v>
+        <v>0.4995307699723496</v>
       </c>
       <c r="M11">
-        <v>0.4781206569561645</v>
+        <v>0.5155997655556153</v>
       </c>
       <c r="N11">
-        <v>0.5030171490777924</v>
+        <v>0.5193941301882977</v>
       </c>
       <c r="O11">
-        <v>0.5807365717030405</v>
+        <v>0.535943873263529</v>
       </c>
       <c r="P11">
-        <v>0.5232102500313531</v>
+        <v>0.5779894431775233</v>
       </c>
       <c r="Q11">
-        <v>0.7613581393920315</v>
+        <v>0.4615150328503677</v>
       </c>
       <c r="R11">
-        <v>0.6736872010258221</v>
+        <v>0.4011899673501215</v>
       </c>
       <c r="S11">
-        <v>0.530473930859382</v>
+        <v>0.4982847509625614</v>
       </c>
       <c r="T11">
-        <v>0.5518349880090399</v>
+        <v>0.5163321909715024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4965451537134213</v>
+        <v>0.5357760925143731</v>
       </c>
       <c r="C12">
-        <v>0.5401937855841566</v>
+        <v>0.5068881552109015</v>
       </c>
       <c r="D12">
-        <v>0.5688815521090145</v>
+        <v>0.6227401605927082</v>
       </c>
       <c r="E12">
-        <v>0.5145161821604761</v>
+        <v>0.5787621337698239</v>
       </c>
       <c r="F12">
-        <v>0.5767870309605917</v>
+        <v>0.5029176791338433</v>
       </c>
       <c r="G12">
-        <v>0.4900915464586242</v>
+        <v>0.4931346490550166</v>
       </c>
       <c r="H12">
-        <v>0.5116010368339571</v>
+        <v>0.6359438305592366</v>
       </c>
       <c r="I12">
-        <v>0.6257148503913466</v>
+        <v>0.6080643485708059</v>
       </c>
       <c r="J12">
-        <v>0.5343850322933743</v>
+        <v>0.5001748327053714</v>
       </c>
       <c r="K12">
-        <v>0.4682653301677634</v>
+        <v>0.4922452826842141</v>
       </c>
       <c r="L12">
-        <v>0.4600114528091055</v>
+        <v>0.7073959301986759</v>
       </c>
       <c r="M12">
-        <v>0.6981589355982192</v>
+        <v>0.5043492802720295</v>
       </c>
       <c r="N12">
-        <v>0.5019649675799353</v>
+        <v>0.5818394427650933</v>
       </c>
       <c r="O12">
-        <v>0.5735640280441795</v>
+        <v>0.501951031639652</v>
       </c>
       <c r="P12">
-        <v>0.5088531227908367</v>
+        <v>0.5363499998733097</v>
       </c>
       <c r="Q12">
-        <v>0.5308782429566491</v>
+        <v>0.5273157098587908</v>
       </c>
       <c r="R12">
-        <v>0.6227490289183431</v>
+        <v>0.54476730780438</v>
       </c>
       <c r="S12">
-        <v>0.5629587774886422</v>
+        <v>0.5037132946336494</v>
       </c>
       <c r="T12">
-        <v>0.4601786840925042</v>
+        <v>0.507609023394643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5090029761904762</v>
+        <v>0.53125</v>
       </c>
       <c r="C13">
-        <v>0.5855654761904762</v>
+        <v>0.552157738095238</v>
       </c>
       <c r="D13">
-        <v>0.5638392857142858</v>
+        <v>0.557514880952381</v>
       </c>
       <c r="E13">
-        <v>0.5142113095238096</v>
+        <v>0.5966517857142857</v>
       </c>
       <c r="F13">
-        <v>0.5647321428571428</v>
+        <v>0.5087797619047618</v>
       </c>
       <c r="G13">
-        <v>0.5079613095238095</v>
+        <v>0.4837053571428571</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.6488839285714285</v>
       </c>
       <c r="I13">
-        <v>0.6633928571428571</v>
+        <v>0.5459821428571429</v>
       </c>
       <c r="J13">
-        <v>0.4587797619047619</v>
+        <v>0.5182291666666666</v>
       </c>
       <c r="K13">
-        <v>0.4895833333333333</v>
+        <v>0.5119791666666667</v>
       </c>
       <c r="L13">
-        <v>0.4712797619047619</v>
+        <v>0.5091517857142858</v>
       </c>
       <c r="M13">
-        <v>0.5357142857142857</v>
+        <v>0.7556547619047619</v>
       </c>
       <c r="N13">
-        <v>0.6934523809523809</v>
+        <v>0.5651785714285714</v>
       </c>
       <c r="O13">
-        <v>0.4973958333333333</v>
+        <v>0.5456845238095238</v>
       </c>
       <c r="P13">
-        <v>0.5078125</v>
+        <v>0.6069196428571428</v>
       </c>
       <c r="Q13">
-        <v>0.5595982142857143</v>
+        <v>0.4948660714285714</v>
       </c>
       <c r="R13">
-        <v>0.6709821428571429</v>
+        <v>0.5064732142857142</v>
       </c>
       <c r="S13">
-        <v>0.625297619047619</v>
+        <v>0.514360119047619</v>
       </c>
       <c r="T13">
-        <v>0.5037202380952381</v>
+        <v>0.5111607142857143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.5061857497341369</v>
+        <v>0.5775020678246485</v>
       </c>
       <c r="C14">
-        <v>0.5082181259600614</v>
+        <v>0.5349285123478672</v>
       </c>
       <c r="D14">
-        <v>0.7062034739454094</v>
+        <v>0.5534384969868841</v>
       </c>
       <c r="E14">
-        <v>0.5635826539052345</v>
+        <v>0.6065106936074678</v>
       </c>
       <c r="F14">
-        <v>0.5596656032139903</v>
+        <v>0.4608117688762851</v>
       </c>
       <c r="G14">
-        <v>0.5054413328606877</v>
+        <v>0.50254637835283</v>
       </c>
       <c r="H14">
-        <v>0.5144747725392886</v>
+        <v>0.6157272834692189</v>
       </c>
       <c r="I14">
-        <v>0.5593583835519319</v>
+        <v>0.5429103154909607</v>
       </c>
       <c r="J14">
-        <v>0.4975895072669266</v>
+        <v>0.5272952853598015</v>
       </c>
       <c r="K14">
-        <v>0.5734786718657686</v>
+        <v>0.4954153373508212</v>
       </c>
       <c r="L14">
-        <v>0.5328429634881248</v>
+        <v>0.5509275670565993</v>
       </c>
       <c r="M14">
-        <v>0.5579818031430934</v>
+        <v>0.5050218598605696</v>
       </c>
       <c r="N14">
-        <v>0.5007326007326007</v>
+        <v>0.712383315609122</v>
       </c>
       <c r="O14">
-        <v>0.5226928984993502</v>
+        <v>0.5591161526645397</v>
       </c>
       <c r="P14">
-        <v>0.5139607704123833</v>
+        <v>0.5445645752097366</v>
       </c>
       <c r="Q14">
-        <v>0.5837646224742999</v>
+        <v>0.6077868368190948</v>
       </c>
       <c r="R14">
-        <v>0.5669916105399977</v>
+        <v>0.5215999054708732</v>
       </c>
       <c r="S14">
-        <v>0.5674051754696916</v>
+        <v>0.5129150419473001</v>
       </c>
       <c r="T14">
-        <v>0.5127318917641499</v>
+        <v>0.5077750206782465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.4979746275317156</v>
+        <v>0.5706131617335478</v>
       </c>
       <c r="C15">
-        <v>0.5719931600085499</v>
+        <v>0.6605770492786884</v>
       </c>
       <c r="D15">
-        <v>0.5976945028818714</v>
+        <v>0.5142394822006473</v>
       </c>
       <c r="E15">
-        <v>0.7562244297194629</v>
+        <v>0.6076687404140745</v>
       </c>
       <c r="F15">
-        <v>0.5859513925607593</v>
+        <v>0.5146287317140854</v>
       </c>
       <c r="G15">
-        <v>0.5044216194729757</v>
+        <v>0.5830098962376298</v>
       </c>
       <c r="H15">
-        <v>0.5920128849838938</v>
+        <v>0.7037098703626621</v>
       </c>
       <c r="I15">
-        <v>0.6041819947725066</v>
+        <v>0.5366760791549011</v>
       </c>
       <c r="J15">
-        <v>0.5225787217765978</v>
+        <v>0.6814296482129397</v>
       </c>
       <c r="K15">
-        <v>0.6399457000678749</v>
+        <v>0.4918632601709248</v>
       </c>
       <c r="L15">
-        <v>0.506122242347197</v>
+        <v>0.5085499893125134</v>
       </c>
       <c r="M15">
-        <v>0.5119013601232998</v>
+        <v>0.5400848248939689</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>0.544451694435382</v>
       </c>
       <c r="O15">
-        <v>0.5422616971728785</v>
+        <v>0.7532004334994582</v>
       </c>
       <c r="P15">
-        <v>0.5009708737864078</v>
+        <v>0.5023332470834412</v>
       </c>
       <c r="Q15">
-        <v>0.6074073657407928</v>
+        <v>0.6018967476290654</v>
       </c>
       <c r="R15">
-        <v>0.7056793679007902</v>
+        <v>0.581431523210596</v>
       </c>
       <c r="S15">
-        <v>0.508106364867044</v>
+        <v>0.5099802375247031</v>
       </c>
       <c r="T15">
-        <v>0.5252873433908207</v>
+        <v>0.5001623747970315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.4970697674418605</v>
+        <v>0.5011162790697674</v>
       </c>
       <c r="C16">
-        <v>0.4992558139534883</v>
+        <v>0.5793023255813954</v>
       </c>
       <c r="D16">
-        <v>0.4996744186046512</v>
+        <v>0.5487906976744186</v>
       </c>
       <c r="E16">
-        <v>0.5722790697674419</v>
+        <v>0.6270232558139535</v>
       </c>
       <c r="F16">
-        <v>0.514093023255814</v>
+        <v>0.5583720930232559</v>
       </c>
       <c r="G16">
-        <v>0.476046511627907</v>
+        <v>0.6041395348837209</v>
       </c>
       <c r="H16">
-        <v>0.5058139534883721</v>
+        <v>0.6994418604651162</v>
       </c>
       <c r="I16">
-        <v>0.6227906976744186</v>
+        <v>0.5008837209302326</v>
       </c>
       <c r="J16">
-        <v>0.5554883720930233</v>
+        <v>0.5982325581395349</v>
       </c>
       <c r="K16">
-        <v>0.547953488372093</v>
+        <v>0.5240465116279069</v>
       </c>
       <c r="L16">
-        <v>0.6140930232558139</v>
+        <v>0.5021860465116279</v>
       </c>
       <c r="M16">
-        <v>0.5346511627906977</v>
+        <v>0.5584651162790698</v>
       </c>
       <c r="N16">
-        <v>0.5</v>
+        <v>0.5938604651162791</v>
       </c>
       <c r="O16">
-        <v>0.5326976744186046</v>
+        <v>0.5466046511627907</v>
       </c>
       <c r="P16">
-        <v>0.5221860465116279</v>
+        <v>0.7269767441860465</v>
       </c>
       <c r="Q16">
-        <v>0.6402325581395349</v>
+        <v>0.4651627906976744</v>
       </c>
       <c r="R16">
-        <v>0.6191162790697675</v>
+        <v>0.5130697674418605</v>
       </c>
       <c r="S16">
-        <v>0.7041395348837209</v>
+        <v>0.5061860465116279</v>
       </c>
       <c r="T16">
-        <v>0.5257209302325582</v>
+        <v>0.5866511627906977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.460900974025974</v>
+        <v>0.5688717532467532</v>
       </c>
       <c r="C17">
-        <v>0.5495454545454546</v>
+        <v>0.5002353896103896</v>
       </c>
       <c r="D17">
-        <v>0.639512987012987</v>
+        <v>0.5760470779220779</v>
       </c>
       <c r="E17">
-        <v>0.5324107142857143</v>
+        <v>0.5382061688311688</v>
       </c>
       <c r="F17">
-        <v>0.696939935064935</v>
+        <v>0.5009821428571428</v>
       </c>
       <c r="G17">
-        <v>0.5145211038961039</v>
+        <v>0.4940584415584416</v>
       </c>
       <c r="H17">
-        <v>0.4999918831168831</v>
+        <v>0.5933766233766233</v>
       </c>
       <c r="I17">
-        <v>0.5453003246753247</v>
+        <v>0.5776623376623377</v>
       </c>
       <c r="J17">
-        <v>0.4989529220779221</v>
+        <v>0.501452922077922</v>
       </c>
       <c r="K17">
-        <v>0.5044967532467532</v>
+        <v>0.4957711038961039</v>
       </c>
       <c r="L17">
-        <v>0.4623701298701298</v>
+        <v>0.5387418831168831</v>
       </c>
       <c r="M17">
-        <v>0.5825243506493507</v>
+        <v>0.5</v>
       </c>
       <c r="N17">
-        <v>0.5014204545454546</v>
+        <v>0.6020373376623377</v>
       </c>
       <c r="O17">
-        <v>0.5396185064935065</v>
+        <v>0.498612012987013</v>
       </c>
       <c r="P17">
-        <v>0.5216071428571428</v>
+        <v>0.5452191558441559</v>
       </c>
       <c r="Q17">
-        <v>0.5721266233766233</v>
+        <v>0.6953165584415584</v>
       </c>
       <c r="R17">
-        <v>0.5521996753246754</v>
+        <v>0.5716720779220779</v>
       </c>
       <c r="S17">
-        <v>0.5471672077922078</v>
+        <v>0.5134172077922078</v>
       </c>
       <c r="T17">
-        <v>0.4496915584415584</v>
+        <v>0.4904626623376623</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.5032764134102566</v>
+        <v>0.6651588267267043</v>
       </c>
       <c r="C18">
-        <v>0.6505508513156697</v>
+        <v>0.5511575741021248</v>
       </c>
       <c r="D18">
-        <v>0.6625721845607122</v>
+        <v>0.626436448616181</v>
       </c>
       <c r="E18">
-        <v>0.6361898140100817</v>
+        <v>0.7078322145243752</v>
       </c>
       <c r="F18">
-        <v>0.6376410927080143</v>
+        <v>0.5432114093681971</v>
       </c>
       <c r="G18">
-        <v>0.5218395371359043</v>
+        <v>0.4927022202356811</v>
       </c>
       <c r="H18">
-        <v>0.5184403444441685</v>
+        <v>0.7331316442215103</v>
       </c>
       <c r="I18">
-        <v>0.6370051236208024</v>
+        <v>0.6667825482357032</v>
       </c>
       <c r="J18">
-        <v>0.5523619146946106</v>
+        <v>0.5138354316174584</v>
       </c>
       <c r="K18">
-        <v>0.6363953658408725</v>
+        <v>0.4896768835583367</v>
       </c>
       <c r="L18">
-        <v>0.5222009772678988</v>
+        <v>0.6244043825305776</v>
       </c>
       <c r="M18">
-        <v>0.6958564061814541</v>
+        <v>0.5000841520918002</v>
       </c>
       <c r="N18">
-        <v>0.4988094548323994</v>
+        <v>0.6899809347228085</v>
       </c>
       <c r="O18">
-        <v>0.7037501483008175</v>
+        <v>0.5101975780752072</v>
       </c>
       <c r="P18">
-        <v>0.5548423320889859</v>
+        <v>0.6234373232461187</v>
       </c>
       <c r="Q18">
-        <v>0.6501231931442256</v>
+        <v>0.6366409244038307</v>
       </c>
       <c r="R18">
-        <v>0.7035749464047742</v>
+        <v>0.7359265973032704</v>
       </c>
       <c r="S18">
-        <v>0.6392234279423572</v>
+        <v>0.5197771211155532</v>
       </c>
       <c r="T18">
-        <v>0.53301383129299</v>
+        <v>0.5319943493939669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.5680534155110426</v>
+        <v>0.5767847971237802</v>
       </c>
       <c r="C19">
-        <v>0.5151515151515151</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
-        <v>0.6718027734976888</v>
+        <v>0.4933230611196713</v>
       </c>
       <c r="E19">
-        <v>0.5562403697996918</v>
+        <v>0.6856702619414483</v>
       </c>
       <c r="F19">
-        <v>0.5469953775038521</v>
+        <v>0.559065228556754</v>
       </c>
       <c r="G19">
-        <v>0.7444786851566513</v>
+        <v>0.544427324088341</v>
       </c>
       <c r="H19">
+        <v>0.5285053929121726</v>
+      </c>
+      <c r="I19">
+        <v>0.5218284540318439</v>
+      </c>
+      <c r="J19">
         <v>0.5</v>
       </c>
-      <c r="I19">
-        <v>0.5303030303030303</v>
-      </c>
-      <c r="J19">
-        <v>0.4817668207498716</v>
-      </c>
       <c r="K19">
-        <v>0.5903954802259886</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>0.4799691833590138</v>
+        <v>0.5374935798664613</v>
       </c>
       <c r="M19">
-        <v>0.5790960451977401</v>
+        <v>0.5</v>
       </c>
       <c r="N19">
-        <v>0.5</v>
+        <v>0.5611196712891628</v>
       </c>
       <c r="O19">
         <v>0.5</v>
       </c>
       <c r="P19">
-        <v>0.5102722136620442</v>
+        <v>0.5683102208525938</v>
       </c>
       <c r="Q19">
-        <v>0.5441705187467899</v>
+        <v>0.5706214689265536</v>
       </c>
       <c r="R19">
-        <v>0.5939907550077042</v>
+        <v>0.54185927067283</v>
       </c>
       <c r="S19">
-        <v>0.5947611710323575</v>
+        <v>0.7480739599383668</v>
       </c>
       <c r="T19">
-        <v>0.522342064714946</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -4129,61 +4129,61 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.478469995419148</v>
+        <v>0.4989311345243549</v>
       </c>
       <c r="C20">
-        <v>0.5315315315315315</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="D20">
-        <v>0.4697663765460376</v>
+        <v>0.5124446480378684</v>
       </c>
       <c r="E20">
-        <v>0.4986257443884563</v>
+        <v>0.6188731103985341</v>
       </c>
       <c r="F20">
-        <v>0.4559474728966255</v>
+        <v>0.5158802870667277</v>
       </c>
       <c r="G20">
-        <v>0.5169491525423728</v>
+        <v>0.5516109329668651</v>
       </c>
       <c r="H20">
-        <v>0.5262635516872805</v>
+        <v>0.6489540387845473</v>
       </c>
       <c r="I20">
-        <v>0.5005344327378226</v>
+        <v>0.5171781951442969</v>
       </c>
       <c r="J20">
-        <v>0.4588486791876623</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="K20">
-        <v>0.5449686975110704</v>
+        <v>0.4938921972820278</v>
       </c>
       <c r="L20">
-        <v>0.5781035272560696</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="M20">
-        <v>0.5158802870667277</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="N20">
+        <v>0.523285997862269</v>
+      </c>
+      <c r="O20">
         <v>0.5</v>
       </c>
-      <c r="O20">
-        <v>0.5556573522675218</v>
-      </c>
       <c r="P20">
-        <v>0.5169491525423728</v>
+        <v>0.6291800274851123</v>
       </c>
       <c r="Q20">
-        <v>0.5164147198045503</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="R20">
-        <v>0.5828370743624981</v>
+        <v>0.5147350740571079</v>
       </c>
       <c r="S20">
-        <v>0.5959688502061384</v>
+        <v>0.5209192243090548</v>
       </c>
       <c r="T20">
-        <v>0.6872041533058482</v>
+        <v>0.6765918460833715</v>
       </c>
     </row>
   </sheetData>
@@ -4263,1118 +4263,1118 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4094926350245499</v>
+        <v>0.7019659605698689</v>
       </c>
       <c r="C2">
-        <v>0.3814294834921017</v>
+        <v>0.5875619648490311</v>
       </c>
       <c r="D2">
-        <v>0.5382576853934374</v>
+        <v>0.4981976407090284</v>
       </c>
       <c r="E2">
-        <v>0.4845413896833506</v>
+        <v>0.6452851870676891</v>
       </c>
       <c r="F2">
-        <v>0.4782042903982324</v>
+        <v>0.5031572691479087</v>
       </c>
       <c r="G2">
-        <v>0.4682509996597416</v>
+        <v>0.5542308607251305</v>
       </c>
       <c r="H2">
-        <v>0.2019220102695647</v>
+        <v>0.6073125520806761</v>
       </c>
       <c r="I2">
-        <v>0.3927886147865273</v>
+        <v>0.5028105485957787</v>
       </c>
       <c r="J2">
-        <v>0.5235556606116374</v>
+        <v>0.4886850152905199</v>
       </c>
       <c r="K2">
-        <v>0.4214874337456666</v>
+        <v>0.4700003207167851</v>
       </c>
       <c r="L2">
-        <v>0.2890112225381758</v>
+        <v>0.5552048758197017</v>
       </c>
       <c r="M2">
-        <v>0.5013743615516274</v>
+        <v>0.166187414909919</v>
       </c>
       <c r="N2">
-        <v>0.1210986267166042</v>
+        <v>0.5412186379928315</v>
       </c>
       <c r="O2">
-        <v>0.2535417230996767</v>
+        <v>0.4883555454087116</v>
       </c>
       <c r="P2">
-        <v>0.6956427755303709</v>
+        <v>0.5674142698461466</v>
       </c>
       <c r="Q2">
-        <v>0.2914112475367591</v>
+        <v>0.5184740348039026</v>
       </c>
       <c r="R2">
-        <v>0.5638596880238937</v>
+        <v>0.4586771863782341</v>
       </c>
       <c r="S2">
-        <v>0.5574646411733891</v>
+        <v>0.4694000602954477</v>
       </c>
       <c r="T2">
-        <v>0.4132277444955819</v>
+        <v>0.4872694620898619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4855550090178718</v>
+        <v>0.5292076344707923</v>
       </c>
       <c r="C3">
-        <v>0.5947557721313378</v>
+        <v>0.677867631054632</v>
       </c>
       <c r="D3">
-        <v>0.5477887965692845</v>
+        <v>0.4574366787278613</v>
       </c>
       <c r="E3">
-        <v>0.5301587301587302</v>
+        <v>0.6844017960385036</v>
       </c>
       <c r="F3">
-        <v>0.5213827711179259</v>
+        <v>0.4098486668268077</v>
       </c>
       <c r="G3">
-        <v>0.4789795918367347</v>
+        <v>0.3174429223744293</v>
       </c>
       <c r="H3">
-        <v>0.4872068230277185</v>
+        <v>0.6810344827586207</v>
       </c>
       <c r="I3">
-        <v>0.735541128119602</v>
+        <v>0.4502443792766374</v>
       </c>
       <c r="J3">
-        <v>0.4917333071677378</v>
+        <v>0.3445646715061864</v>
       </c>
       <c r="K3">
-        <v>0.5420230623266675</v>
+        <v>0.3828529533061449</v>
       </c>
       <c r="L3">
-        <v>0.4849577606859161</v>
+        <v>0.3650473186119874</v>
       </c>
       <c r="M3">
-        <v>0.5725281760388286</v>
+        <v>0.6226030191758466</v>
       </c>
       <c r="N3">
-        <v>0.4688335872693414</v>
+        <v>0.5458524070627295</v>
       </c>
       <c r="O3">
-        <v>0.4674840085287846</v>
+        <v>0.5198497396055665</v>
       </c>
       <c r="P3">
-        <v>0.3172870518383192</v>
+        <v>0.5701599948596029</v>
       </c>
       <c r="Q3">
-        <v>0.6678906568747449</v>
+        <v>0.4189674197107845</v>
       </c>
       <c r="R3">
-        <v>0.7053478767340887</v>
+        <v>0.5054729807581519</v>
       </c>
       <c r="S3">
-        <v>0.5552884615384616</v>
+        <v>0.250289381697324</v>
       </c>
       <c r="T3">
-        <v>0.5216238929471847</v>
+        <v>0.5186991869918698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4785727516902843</v>
+        <v>0.3373201990106491</v>
       </c>
       <c r="C4">
-        <v>0.7068813974572811</v>
+        <v>0.4060013612786632</v>
       </c>
       <c r="D4">
-        <v>0.4487542592133176</v>
+        <v>0.694973972232427</v>
       </c>
       <c r="E4">
-        <v>0.6773909636536048</v>
+        <v>0.6239879743336501</v>
       </c>
       <c r="F4">
-        <v>0.6646103896103897</v>
+        <v>0.3469682984153086</v>
       </c>
       <c r="G4">
-        <v>0.2253933022390858</v>
+        <v>0.4837295197862382</v>
       </c>
       <c r="H4">
-        <v>0.7272967265047519</v>
+        <v>0.7488877788877789</v>
       </c>
       <c r="I4">
-        <v>0.7700111320846038</v>
+        <v>0.5490513120671154</v>
       </c>
       <c r="J4">
-        <v>0.416072110610343</v>
+        <v>0.1131095643363536</v>
       </c>
       <c r="K4">
-        <v>0.6276899730118903</v>
+        <v>0.1294941081992615</v>
       </c>
       <c r="L4">
-        <v>0.4980233604316051</v>
+        <v>0.3638137446759526</v>
       </c>
       <c r="M4">
-        <v>0.4876259881449276</v>
+        <v>0.5551669449958513</v>
       </c>
       <c r="N4">
-        <v>0.4688946015424165</v>
+        <v>0.4101202935340369</v>
       </c>
       <c r="O4">
-        <v>0.6800586550452932</v>
+        <v>0.3504601424557152</v>
       </c>
       <c r="P4">
-        <v>0.2606651564398043</v>
+        <v>0.5236776220582491</v>
       </c>
       <c r="Q4">
-        <v>0.6357193234777558</v>
+        <v>0.4164466485895057</v>
       </c>
       <c r="R4">
-        <v>0.7878744380314404</v>
+        <v>0.7086742641478008</v>
       </c>
       <c r="S4">
-        <v>0.530396518545981</v>
+        <v>0.1755228089966862</v>
       </c>
       <c r="T4">
-        <v>0.5270203015571562</v>
+        <v>0.3372422167065024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4588998589562764</v>
+        <v>0.4003772420578322</v>
       </c>
       <c r="C5">
-        <v>0.4484126984126984</v>
+        <v>0.4838306667511068</v>
       </c>
       <c r="D5">
-        <v>0.5582627118644068</v>
+        <v>0.3934157240608854</v>
       </c>
       <c r="E5">
-        <v>0.4776978417266187</v>
+        <v>0.6899628252788104</v>
       </c>
       <c r="F5">
-        <v>0.5784259212455138</v>
+        <v>0.5547893234849757</v>
       </c>
       <c r="G5">
-        <v>0.5178229665071771</v>
+        <v>0.6390719231628322</v>
       </c>
       <c r="H5">
-        <v>0.4175977653631285</v>
+        <v>0.5681119955313503</v>
       </c>
       <c r="I5">
-        <v>0.6942642828943659</v>
+        <v>0.3664481095288987</v>
       </c>
       <c r="J5">
-        <v>0.5125586642861713</v>
+        <v>0.2574786324786325</v>
       </c>
       <c r="K5">
-        <v>0.4230386607663545</v>
+        <v>0.4406164900139902</v>
       </c>
       <c r="L5">
-        <v>0.4552924321591101</v>
+        <v>0.2914658247372988</v>
       </c>
       <c r="M5">
-        <v>0.3901288521235454</v>
+        <v>0.4637345679012346</v>
       </c>
       <c r="N5">
-        <v>0.4354341736694678</v>
+        <v>0.5574384213472663</v>
       </c>
       <c r="O5">
-        <v>0.5152635382085895</v>
+        <v>0.3948596905323892</v>
       </c>
       <c r="P5">
-        <v>0.2625994694960212</v>
+        <v>0.5773272872766071</v>
       </c>
       <c r="Q5">
-        <v>0.4766981648128881</v>
+        <v>0.3277914260051275</v>
       </c>
       <c r="R5">
-        <v>0.6920994339158258</v>
+        <v>0.4239270583901271</v>
       </c>
       <c r="S5">
-        <v>0.5402699561991597</v>
+        <v>0.2967024331267947</v>
       </c>
       <c r="T5">
-        <v>0.4334705640181145</v>
+        <v>0.4699429447033763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6787605110559995</v>
+        <v>0.437847866419295</v>
       </c>
       <c r="C6">
-        <v>0.4009038696921194</v>
+        <v>0.467242315306726</v>
       </c>
       <c r="D6">
-        <v>0.5146148782093483</v>
+        <v>0.3689414619350925</v>
       </c>
       <c r="E6">
-        <v>0.4722271275144083</v>
+        <v>0.518625360591998</v>
       </c>
       <c r="F6">
-        <v>0.5120582934707592</v>
+        <v>0.7206335133877442</v>
       </c>
       <c r="G6">
-        <v>0.3993768405618342</v>
+        <v>0.59559376938037</v>
       </c>
       <c r="H6">
-        <v>0.2980740120741545</v>
+        <v>0.4560748797766956</v>
       </c>
       <c r="I6">
-        <v>0.4420713694907243</v>
+        <v>0.3856272692183053</v>
       </c>
       <c r="J6">
-        <v>0.7290281368821293</v>
+        <v>0.4742285139530902</v>
       </c>
       <c r="K6">
-        <v>0.5017778090085026</v>
+        <v>0.6168565782778981</v>
       </c>
       <c r="L6">
-        <v>0.6220084563144834</v>
+        <v>0.3799703982404935</v>
       </c>
       <c r="M6">
-        <v>0.4825582420683209</v>
+        <v>0.2982132728304028</v>
       </c>
       <c r="N6">
-        <v>0.3076306730502908</v>
+        <v>0.4805827096808981</v>
       </c>
       <c r="O6">
-        <v>0.4492911668484187</v>
+        <v>0.3701659542733443</v>
       </c>
       <c r="P6">
-        <v>0.3661432297326668</v>
+        <v>0.3867448801070289</v>
       </c>
       <c r="Q6">
-        <v>0.563939144736842</v>
+        <v>0.3741034373872248</v>
       </c>
       <c r="R6">
-        <v>0.506222671376112</v>
+        <v>0.4509785438549241</v>
       </c>
       <c r="S6">
-        <v>0.3798245614035088</v>
+        <v>0.3441281889099726</v>
       </c>
       <c r="T6">
-        <v>0.3804796658184088</v>
+        <v>0.3866975887830613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.3930142703593356</v>
+        <v>0.4865351500668719</v>
       </c>
       <c r="C7">
-        <v>0.4819282112218978</v>
+        <v>0.6452824082554802</v>
       </c>
       <c r="D7">
-        <v>0.506987197619077</v>
+        <v>0.3518588236095975</v>
       </c>
       <c r="E7">
-        <v>0.5120516328254113</v>
+        <v>0.5654113439586337</v>
       </c>
       <c r="F7">
-        <v>0.5121642956790504</v>
+        <v>0.6020418133425676</v>
       </c>
       <c r="G7">
-        <v>0.4198166736319265</v>
+        <v>0.699891803638656</v>
       </c>
       <c r="H7">
-        <v>0.5058845203821999</v>
+        <v>0.5945315849281005</v>
       </c>
       <c r="I7">
-        <v>0.6679578189498812</v>
+        <v>0.402313709324109</v>
       </c>
       <c r="J7">
-        <v>0.6732791623286483</v>
+        <v>0.6448838031159339</v>
       </c>
       <c r="K7">
-        <v>0.6201739075398989</v>
+        <v>0.5015610305895153</v>
       </c>
       <c r="L7">
-        <v>0.4693525602494008</v>
+        <v>0.3417478048140335</v>
       </c>
       <c r="M7">
-        <v>0.4537111514979031</v>
+        <v>0.387571423825707</v>
       </c>
       <c r="N7">
-        <v>0.3828997834316984</v>
+        <v>0.4164514666889092</v>
       </c>
       <c r="O7">
-        <v>0.6132652868144552</v>
+        <v>0.5335769962656955</v>
       </c>
       <c r="P7">
-        <v>0.3217936288890398</v>
+        <v>0.391723918801384</v>
       </c>
       <c r="Q7">
-        <v>0.4662764628311547</v>
+        <v>0.3690812066208122</v>
       </c>
       <c r="R7">
-        <v>0.626989446125642</v>
+        <v>0.5384395302992941</v>
       </c>
       <c r="S7">
-        <v>0.4609336283988463</v>
+        <v>0.3023307006163542</v>
       </c>
       <c r="T7">
-        <v>0.5633328285585157</v>
+        <v>0.393687120993681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4048065387911147</v>
+        <v>0.5403186274509804</v>
       </c>
       <c r="C8">
-        <v>0.480130412820866</v>
+        <v>0.57375</v>
       </c>
       <c r="D8">
-        <v>0.5313930524840509</v>
+        <v>0.4576168929110106</v>
       </c>
       <c r="E8">
-        <v>0.563034822019832</v>
+        <v>0.5825629854991583</v>
       </c>
       <c r="F8">
-        <v>0.547261880129664</v>
+        <v>0.4881145669773606</v>
       </c>
       <c r="G8">
-        <v>0.3745816514480543</v>
+        <v>0.5628205128205128</v>
       </c>
       <c r="H8">
-        <v>0.4326541357342178</v>
+        <v>0.7076070259800975</v>
       </c>
       <c r="I8">
-        <v>0.6015955164891336</v>
+        <v>0.5294807557974077</v>
       </c>
       <c r="J8">
-        <v>0.5102659574468085</v>
+        <v>0.5125018234865062</v>
       </c>
       <c r="K8">
-        <v>0.5493783078494057</v>
+        <v>0.3818938605619147</v>
       </c>
       <c r="L8">
-        <v>0.489867975618573</v>
+        <v>0.4494212682361116</v>
       </c>
       <c r="M8">
-        <v>0.5354989284815673</v>
+        <v>0.4599380894104096</v>
       </c>
       <c r="N8">
-        <v>0.364613880742913</v>
+        <v>0.5164610085008559</v>
       </c>
       <c r="O8">
-        <v>0.452333306651725</v>
+        <v>0.3591534910323977</v>
       </c>
       <c r="P8">
-        <v>0.3927661253345561</v>
+        <v>0.3893745298112888</v>
       </c>
       <c r="Q8">
-        <v>0.5920478536242082</v>
+        <v>0.4866438968395104</v>
       </c>
       <c r="R8">
-        <v>0.6794587648869839</v>
+        <v>0.4988956034391158</v>
       </c>
       <c r="S8">
-        <v>0.4531385281385281</v>
+        <v>0.3393151774871229</v>
       </c>
       <c r="T8">
-        <v>0.5021819545731208</v>
+        <v>0.4106560310886128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3576231951637884</v>
+        <v>0.4091159577037963</v>
       </c>
       <c r="C9">
-        <v>0.6863765434656459</v>
+        <v>0.3923158006177187</v>
       </c>
       <c r="D9">
-        <v>0.533925766133003</v>
+        <v>0.5994218037173564</v>
       </c>
       <c r="E9">
-        <v>0.5998280329526045</v>
+        <v>0.6260084154820997</v>
       </c>
       <c r="F9">
-        <v>0.6368298368298368</v>
+        <v>0.35173200799381</v>
       </c>
       <c r="G9">
-        <v>0.3987438824743961</v>
+        <v>0.4841164999198097</v>
       </c>
       <c r="H9">
-        <v>0.3064442703136219</v>
+        <v>0.6827744659711872</v>
       </c>
       <c r="I9">
-        <v>0.5272104571139997</v>
+        <v>0.7167382705170031</v>
       </c>
       <c r="J9">
-        <v>0.4447209778220231</v>
+        <v>0.44070599799141</v>
       </c>
       <c r="K9">
-        <v>0.3981932209738379</v>
+        <v>0.4185804866023106</v>
       </c>
       <c r="L9">
-        <v>0.3515063858619629</v>
+        <v>0.4760062232411715</v>
       </c>
       <c r="M9">
-        <v>0.6549776785714285</v>
+        <v>0.3777506478273098</v>
       </c>
       <c r="N9">
-        <v>0.3047428965743933</v>
+        <v>0.5096258943714796</v>
       </c>
       <c r="O9">
-        <v>0.3118415115037056</v>
+        <v>0.3866442788074018</v>
       </c>
       <c r="P9">
-        <v>0.4345054328214586</v>
+        <v>0.4603841060023312</v>
       </c>
       <c r="Q9">
-        <v>0.5693438871590952</v>
+        <v>0.4537560954651887</v>
       </c>
       <c r="R9">
-        <v>0.6227077868454289</v>
+        <v>0.5420665941025135</v>
       </c>
       <c r="S9">
-        <v>0.5569705740472745</v>
+        <v>0.5231074855963355</v>
       </c>
       <c r="T9">
-        <v>0.4776350605312952</v>
+        <v>0.4714763195041618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4774452882512058</v>
+        <v>0.3633531072940831</v>
       </c>
       <c r="C10">
-        <v>0.2851443438824005</v>
+        <v>0.4672093759603344</v>
       </c>
       <c r="D10">
-        <v>0.5575083590837275</v>
+        <v>0.1262377177448004</v>
       </c>
       <c r="E10">
-        <v>0.3783260273826128</v>
+        <v>0.3091038654127053</v>
       </c>
       <c r="F10">
-        <v>0.2877695137839736</v>
+        <v>0.5113156368075727</v>
       </c>
       <c r="G10">
-        <v>0.1625312163575139</v>
+        <v>0.5377508442484504</v>
       </c>
       <c r="H10">
-        <v>0.424499734640323</v>
+        <v>0.4797968530940669</v>
       </c>
       <c r="I10">
-        <v>0.6267531565593403</v>
+        <v>0.3158205911042984</v>
       </c>
       <c r="J10">
-        <v>0.5074924730106514</v>
+        <v>0.7168241736762779</v>
       </c>
       <c r="K10">
-        <v>0.6844669111058544</v>
+        <v>0.4414587064231883</v>
       </c>
       <c r="L10">
-        <v>0.4636137200968247</v>
+        <v>0.1322844578915655</v>
       </c>
       <c r="M10">
-        <v>0.1582825285887009</v>
+        <v>0.4631476808302494</v>
       </c>
       <c r="N10">
-        <v>0.4615245228316018</v>
+        <v>0.1622202797327496</v>
       </c>
       <c r="O10">
-        <v>0.4984794691634371</v>
+        <v>0.1667378532811803</v>
       </c>
       <c r="P10">
-        <v>0.1259519856244541</v>
+        <v>0.1522294914647306</v>
       </c>
       <c r="Q10">
-        <v>0.5423267181266622</v>
+        <v>0.1314902910151578</v>
       </c>
       <c r="R10">
-        <v>0.5701056325747851</v>
+        <v>0.1423406883047344</v>
       </c>
       <c r="S10">
-        <v>0.2421144766186999</v>
+        <v>0.1406199043376888</v>
       </c>
       <c r="T10">
-        <v>0.3080653908739531</v>
+        <v>0.1974625608173241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4991009495435063</v>
+        <v>0.5724841760551332</v>
       </c>
       <c r="C11">
-        <v>0.3882344174211736</v>
+        <v>0.7084349980937859</v>
       </c>
       <c r="D11">
-        <v>0.4656033192547214</v>
+        <v>0.2825275541290334</v>
       </c>
       <c r="E11">
-        <v>0.4653522588064701</v>
+        <v>0.6895749068753643</v>
       </c>
       <c r="F11">
-        <v>0.4771188919475219</v>
+        <v>0.7432803412582323</v>
       </c>
       <c r="G11">
-        <v>0.270322589295468</v>
+        <v>0.6597006092125365</v>
       </c>
       <c r="H11">
-        <v>0.4919928098370235</v>
+        <v>0.6578671328671328</v>
       </c>
       <c r="I11">
-        <v>0.7151465062437949</v>
+        <v>0.330839561335062</v>
       </c>
       <c r="J11">
-        <v>0.7273151262991305</v>
+        <v>0.7983105467892486</v>
       </c>
       <c r="K11">
-        <v>0.6793940601767519</v>
+        <v>0.7101492474258986</v>
       </c>
       <c r="L11">
-        <v>0.6887687174674977</v>
+        <v>0.2777164744209462</v>
       </c>
       <c r="M11">
-        <v>0.3431294094591064</v>
+        <v>0.4372156314472823</v>
       </c>
       <c r="N11">
-        <v>0.4017102181888139</v>
+        <v>0.3382059766915633</v>
       </c>
       <c r="O11">
-        <v>0.5703786315730776</v>
+        <v>0.3511222246869266</v>
       </c>
       <c r="P11">
-        <v>0.3355087594453132</v>
+        <v>0.4625817977184349</v>
       </c>
       <c r="Q11">
-        <v>0.7618039175469182</v>
+        <v>0.3293824720684055</v>
       </c>
       <c r="R11">
-        <v>0.6801544197437186</v>
+        <v>0.3883923800783239</v>
       </c>
       <c r="S11">
-        <v>0.3566967383761277</v>
+        <v>0.2705862977602108</v>
       </c>
       <c r="T11">
-        <v>0.4373359327364335</v>
+        <v>0.3266533083219646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3472774621212121</v>
+        <v>0.4618511318541845</v>
       </c>
       <c r="C12">
-        <v>0.4640268186770418</v>
+        <v>0.3874692567426737</v>
       </c>
       <c r="D12">
-        <v>0.5558852235018543</v>
+        <v>0.6038370646097131</v>
       </c>
       <c r="E12">
-        <v>0.4230555545993729</v>
+        <v>0.5574882075471698</v>
       </c>
       <c r="F12">
-        <v>0.525171847495796</v>
+        <v>0.4789414605749492</v>
       </c>
       <c r="G12">
-        <v>0.3903463130527283</v>
+        <v>0.4677820534270258</v>
       </c>
       <c r="H12">
-        <v>0.3380455954233073</v>
+        <v>0.6358440784797268</v>
       </c>
       <c r="I12">
-        <v>0.614309389322782</v>
+        <v>0.6045777837683648</v>
       </c>
       <c r="J12">
-        <v>0.4916598402013511</v>
+        <v>0.358366956843192</v>
       </c>
       <c r="K12">
-        <v>0.3757253981973084</v>
+        <v>0.3868901266161541</v>
       </c>
       <c r="L12">
-        <v>0.4574988330310178</v>
+        <v>0.7018994224061234</v>
       </c>
       <c r="M12">
-        <v>0.6980922018793636</v>
+        <v>0.3469666474985624</v>
       </c>
       <c r="N12">
-        <v>0.3141179726540271</v>
+        <v>0.5722359180600816</v>
       </c>
       <c r="O12">
-        <v>0.4812646735926371</v>
+        <v>0.3622517396102302</v>
       </c>
       <c r="P12">
-        <v>0.3871940753009128</v>
+        <v>0.4925815780634273</v>
       </c>
       <c r="Q12">
-        <v>0.5035134997711903</v>
+        <v>0.5031446540880503</v>
       </c>
       <c r="R12">
-        <v>0.6220324612403101</v>
+        <v>0.4566918032674142</v>
       </c>
       <c r="S12">
-        <v>0.5535170669492508</v>
+        <v>0.3719811906663118</v>
       </c>
       <c r="T12">
-        <v>0.4600604889257027</v>
+        <v>0.4403924635177772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5029922639030798</v>
+        <v>0.1988235294117647</v>
       </c>
       <c r="C13">
-        <v>0.5885302171313973</v>
+        <v>0.2818825812712276</v>
       </c>
       <c r="D13">
-        <v>0.2817152951682099</v>
+        <v>0.3616699113130002</v>
       </c>
       <c r="E13">
-        <v>0.508138070042832</v>
+        <v>0.4443255919198569</v>
       </c>
       <c r="F13">
-        <v>0.5607739665787159</v>
+        <v>0.501098901098901</v>
       </c>
       <c r="G13">
-        <v>0.2461693822461306</v>
+        <v>0.4078429695518303</v>
       </c>
       <c r="H13">
-        <v>0.4582338902147972</v>
+        <v>0.5572491511955502</v>
       </c>
       <c r="I13">
-        <v>0.6296444512852085</v>
+        <v>0.4163083948737992</v>
       </c>
       <c r="J13">
-        <v>0.3118503937007874</v>
+        <v>0.1724307813577692</v>
       </c>
       <c r="K13">
-        <v>0.453012048192771</v>
+        <v>0.3097614221113364</v>
       </c>
       <c r="L13">
-        <v>0.4642780519201888</v>
+        <v>0.1794750903661795</v>
       </c>
       <c r="M13">
-        <v>0.4492820142941447</v>
+        <v>0.7130940343781598</v>
       </c>
       <c r="N13">
-        <v>0.723267154301637</v>
+        <v>0.3038431677018634</v>
       </c>
       <c r="O13">
-        <v>0.4569377990430622</v>
+        <v>0.2906938379427463</v>
       </c>
       <c r="P13">
-        <v>0.1505197505197505</v>
+        <v>0.4022176022176022</v>
       </c>
       <c r="Q13">
-        <v>0.5634615384615385</v>
+        <v>0.1758090789551155</v>
       </c>
       <c r="R13">
-        <v>0.5749787234042554</v>
+        <v>0.4810627123880136</v>
       </c>
       <c r="S13">
-        <v>0.4817351598173517</v>
+        <v>0.189921568627451</v>
       </c>
       <c r="T13">
-        <v>0.5035926273039675</v>
+        <v>0.4668807515337423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.4179559625448745</v>
+        <v>0.5297031249999999</v>
       </c>
       <c r="C14">
-        <v>0.4079683172025417</v>
+        <v>0.4410646663517869</v>
       </c>
       <c r="D14">
-        <v>0.7059646658932242</v>
+        <v>0.5016115739439319</v>
       </c>
       <c r="E14">
-        <v>0.5158651230914061</v>
+        <v>0.6065069164284604</v>
       </c>
       <c r="F14">
-        <v>0.5317275248813725</v>
+        <v>0.4486606212215969</v>
       </c>
       <c r="G14">
-        <v>0.4336377150138033</v>
+        <v>0.4803218000859262</v>
       </c>
       <c r="H14">
-        <v>0.3656070337009061</v>
+        <v>0.6010321425477229</v>
       </c>
       <c r="I14">
-        <v>0.4952206117787692</v>
+        <v>0.5166768987645495</v>
       </c>
       <c r="J14">
-        <v>0.497410466301978</v>
+        <v>0.418849816372072</v>
       </c>
       <c r="K14">
-        <v>0.5504046511484851</v>
+        <v>0.3430745326781134</v>
       </c>
       <c r="L14">
-        <v>0.5234112082409915</v>
+        <v>0.481399978799242</v>
       </c>
       <c r="M14">
-        <v>0.5238200892426921</v>
+        <v>0.3430618885618992</v>
       </c>
       <c r="N14">
-        <v>0.3296707714282922</v>
+        <v>0.7109544219087014</v>
       </c>
       <c r="O14">
-        <v>0.4102135077794457</v>
+        <v>0.4966264711154327</v>
       </c>
       <c r="P14">
-        <v>0.3963788686659832</v>
+        <v>0.4811250171377089</v>
       </c>
       <c r="Q14">
-        <v>0.543704823626341</v>
+        <v>0.6078032243833347</v>
       </c>
       <c r="R14">
-        <v>0.5289326594536463</v>
+        <v>0.4266732804702719</v>
       </c>
       <c r="S14">
-        <v>0.556456483677878</v>
+        <v>0.3973217833655645</v>
       </c>
       <c r="T14">
-        <v>0.5123420179270858</v>
+        <v>0.4515706589624522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.3955760802761648</v>
+        <v>0.4209184445578068</v>
       </c>
       <c r="C15">
-        <v>0.567208663993332</v>
+        <v>0.5970893275169613</v>
       </c>
       <c r="D15">
-        <v>0.5050866623035639</v>
+        <v>0.2951214218140169</v>
       </c>
       <c r="E15">
-        <v>0.7275990868055611</v>
+        <v>0.5003158684967209</v>
       </c>
       <c r="F15">
-        <v>0.5854581414342849</v>
+        <v>0.4807721538227694</v>
       </c>
       <c r="G15">
-        <v>0.3006715405736213</v>
+        <v>0.5588561196651473</v>
       </c>
       <c r="H15">
-        <v>0.5937096844079731</v>
+        <v>0.6823476711990547</v>
       </c>
       <c r="I15">
-        <v>0.5957590270513252</v>
+        <v>0.4255426573815005</v>
       </c>
       <c r="J15">
-        <v>0.4796820560656939</v>
+        <v>0.6184665092581088</v>
       </c>
       <c r="K15">
-        <v>0.6449270262571424</v>
+        <v>0.2935558228389515</v>
       </c>
       <c r="L15">
-        <v>0.4199404030090229</v>
+        <v>0.2848462470802597</v>
       </c>
       <c r="M15">
-        <v>0.3076688590008868</v>
+        <v>0.515086423896627</v>
       </c>
       <c r="N15">
-        <v>0.3908423981785985</v>
+        <v>0.3703192098979081</v>
       </c>
       <c r="O15">
-        <v>0.5124157816010096</v>
+        <v>0.6963782511194905</v>
       </c>
       <c r="P15">
-        <v>0.2660138718890249</v>
+        <v>0.2701238745734201</v>
       </c>
       <c r="Q15">
-        <v>0.6031494579932127</v>
+        <v>0.51998840201515</v>
       </c>
       <c r="R15">
-        <v>0.7021419577811666</v>
+        <v>0.5820225432944552</v>
       </c>
       <c r="S15">
-        <v>0.2869349434943494</v>
+        <v>0.2899711830971018</v>
       </c>
       <c r="T15">
-        <v>0.4310804263565892</v>
+        <v>0.2956202581535127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.4127341526722332</v>
+        <v>0.3479736575481256</v>
       </c>
       <c r="C16">
-        <v>0.4066973415132925</v>
+        <v>0.4890313390313391</v>
       </c>
       <c r="D16">
-        <v>0.3684353741496598</v>
+        <v>0.4816926214312199</v>
       </c>
       <c r="E16">
-        <v>0.5447106627434497</v>
+        <v>0.6148680622845167</v>
       </c>
       <c r="F16">
-        <v>0.4969941956882256</v>
+        <v>0.5583720930232559</v>
       </c>
       <c r="G16">
-        <v>0.3402322811197142</v>
+        <v>0.5979128856624319</v>
       </c>
       <c r="H16">
-        <v>0.3846285812317721</v>
+        <v>0.7043292278191606</v>
       </c>
       <c r="I16">
-        <v>0.6117124918813596</v>
+        <v>0.4878640776699029</v>
       </c>
       <c r="J16">
-        <v>0.5548523206751055</v>
+        <v>0.5391636204795733</v>
       </c>
       <c r="K16">
-        <v>0.4858579315875513</v>
+        <v>0.4233314154200229</v>
       </c>
       <c r="L16">
-        <v>0.5856317964651053</v>
+        <v>0.3047406462585034</v>
       </c>
       <c r="M16">
-        <v>0.4994916977295832</v>
+        <v>0.5294380017841213</v>
       </c>
       <c r="N16">
-        <v>0.3720238095238095</v>
+        <v>0.524874062724888</v>
       </c>
       <c r="O16">
-        <v>0.4498309995171414</v>
+        <v>0.4739870925654108</v>
       </c>
       <c r="P16">
-        <v>0.3467492260061919</v>
+        <v>0.7102496566939061</v>
       </c>
       <c r="Q16">
-        <v>0.6339249966635527</v>
+        <v>0.3626294591484465</v>
       </c>
       <c r="R16">
-        <v>0.6189734075448361</v>
+        <v>0.4226621599871238</v>
       </c>
       <c r="S16">
-        <v>0.7064261289942224</v>
+        <v>0.3133582030319866</v>
       </c>
       <c r="T16">
-        <v>0.5117749897161662</v>
+        <v>0.5638928828181164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.4159695316701606</v>
+        <v>0.5180675783807376</v>
       </c>
       <c r="C17">
-        <v>0.467972027972028</v>
+        <v>0.3953756201275691</v>
       </c>
       <c r="D17">
-        <v>0.6392138540449951</v>
+        <v>0.5322257496382218</v>
       </c>
       <c r="E17">
-        <v>0.5253040860924421</v>
+        <v>0.5345932540494528</v>
       </c>
       <c r="F17">
-        <v>0.6918482796995271</v>
+        <v>0.4888746505125816</v>
       </c>
       <c r="G17">
-        <v>0.4208876423032503</v>
+        <v>0.490454585418017</v>
       </c>
       <c r="H17">
-        <v>0.3352058111380145</v>
+        <v>0.5596525858665614</v>
       </c>
       <c r="I17">
-        <v>0.4579202903446878</v>
+        <v>0.5467945387713757</v>
       </c>
       <c r="J17">
-        <v>0.4212152033129524</v>
+        <v>0.3445378151260505</v>
       </c>
       <c r="K17">
-        <v>0.5013227513227514</v>
+        <v>0.3418569383543635</v>
       </c>
       <c r="L17">
-        <v>0.4383344475217267</v>
+        <v>0.4505990816907551</v>
       </c>
       <c r="M17">
-        <v>0.5820910684933733</v>
+        <v>0.3326996197718631</v>
       </c>
       <c r="N17">
-        <v>0.3358490362611623</v>
+        <v>0.5882247820319022</v>
       </c>
       <c r="O17">
-        <v>0.4481399885478032</v>
+        <v>0.3431994775492796</v>
       </c>
       <c r="P17">
-        <v>0.4221228391345481</v>
+        <v>0.5378176061817499</v>
       </c>
       <c r="Q17">
-        <v>0.5574737762237763</v>
+        <v>0.6942608270921523</v>
       </c>
       <c r="R17">
-        <v>0.4999084081333577</v>
+        <v>0.5606323673436289</v>
       </c>
       <c r="S17">
-        <v>0.5456773038098339</v>
+        <v>0.468959290472715</v>
       </c>
       <c r="T17">
-        <v>0.4357806188314663</v>
+        <v>0.4209192220509776</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.4329879679144386</v>
+        <v>0.5645425230997265</v>
       </c>
       <c r="C18">
-        <v>0.6601977083574881</v>
+        <v>0.3898618576960869</v>
       </c>
       <c r="D18">
-        <v>0.6400786933478426</v>
+        <v>0.4980769230769232</v>
       </c>
       <c r="E18">
-        <v>0.6242207133191572</v>
+        <v>0.6422679219197889</v>
       </c>
       <c r="F18">
-        <v>0.6425620330887968</v>
+        <v>0.4514519056261343</v>
       </c>
       <c r="G18">
-        <v>0.3380249771749055</v>
+        <v>0.4545931421077669</v>
       </c>
       <c r="H18">
-        <v>0.4483087977567473</v>
+        <v>0.7292408798532114</v>
       </c>
       <c r="I18">
-        <v>0.6471050648047176</v>
+        <v>0.6606403854920508</v>
       </c>
       <c r="J18">
-        <v>0.4440259912218326</v>
+        <v>0.2724783378081523</v>
       </c>
       <c r="K18">
-        <v>0.6340401306144541</v>
+        <v>0.2486688408649735</v>
       </c>
       <c r="L18">
-        <v>0.4948780056007983</v>
+        <v>0.5010715205338924</v>
       </c>
       <c r="M18">
-        <v>0.6514999889662779</v>
+        <v>0.4107889237199582</v>
       </c>
       <c r="N18">
-        <v>0.4101628810520024</v>
+        <v>0.6276845950351599</v>
       </c>
       <c r="O18">
-        <v>0.7189957603007588</v>
+        <v>0.2570726942598953</v>
       </c>
       <c r="P18">
-        <v>0.3591318426056029</v>
+        <v>0.5232960588051297</v>
       </c>
       <c r="Q18">
-        <v>0.6555992841615457</v>
+        <v>0.6262268427693549</v>
       </c>
       <c r="R18">
-        <v>0.7112780136507766</v>
+        <v>0.7208145993123513</v>
       </c>
       <c r="S18">
-        <v>0.5936643314042034</v>
+        <v>0.3322325740177899</v>
       </c>
       <c r="T18">
-        <v>0.4367741571766828</v>
+        <v>0.3305573879477041</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.56875</v>
+        <v>0.4940219990435198</v>
       </c>
       <c r="C19">
-        <v>0.4227450980392157</v>
+        <v>0.264</v>
       </c>
       <c r="D19">
-        <v>0.6297348484848485</v>
+        <v>0.2765560442489671</v>
       </c>
       <c r="E19">
-        <v>0.4348894348894349</v>
+        <v>0.6661828737300435</v>
       </c>
       <c r="F19">
-        <v>0.5196962505932606</v>
+        <v>0.5452682338758289</v>
       </c>
       <c r="G19">
-        <v>0.7048128342245989</v>
+        <v>0.5447916666666667</v>
       </c>
       <c r="H19">
+        <v>0.4693583273251623</v>
+      </c>
+      <c r="I19">
+        <v>0.4474474474474475</v>
+      </c>
+      <c r="J19">
+        <v>0.264</v>
+      </c>
+      <c r="K19">
+        <v>0.264</v>
+      </c>
+      <c r="L19">
+        <v>0.3855072463768117</v>
+      </c>
+      <c r="M19">
         <v>0.3907284768211921</v>
       </c>
-      <c r="I19">
-        <v>0.4531160115052733</v>
-      </c>
-      <c r="J19">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="K19">
-        <v>0.5892265591242979</v>
-      </c>
-      <c r="L19">
-        <v>0.2982546864899806</v>
-      </c>
-      <c r="M19">
-        <v>0.5517528223410577</v>
-      </c>
       <c r="N19">
-        <v>0.3907284768211921</v>
+        <v>0.408695652173913</v>
       </c>
       <c r="O19">
-        <v>0.3907284768211921</v>
+        <v>0.264</v>
       </c>
       <c r="P19">
-        <v>0.3120818575364029</v>
+        <v>0.4817212034040513</v>
       </c>
       <c r="Q19">
-        <v>0.377981885444572</v>
+        <v>0.5415282392026579</v>
       </c>
       <c r="R19">
-        <v>0.5856499456437334</v>
+        <v>0.5063715627095908</v>
       </c>
       <c r="S19">
-        <v>0.5892857142857142</v>
+        <v>0.7227245328511152</v>
       </c>
       <c r="T19">
-        <v>0.3774436090225564</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -5382,61 +5382,61 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.4749508643857046</v>
+        <v>0.4198601398601399</v>
       </c>
       <c r="C20">
-        <v>0.3250877996640709</v>
+        <v>0.4130952380952381</v>
       </c>
       <c r="D20">
-        <v>0.4341568609066617</v>
+        <v>0.4279415177535391</v>
       </c>
       <c r="E20">
-        <v>0.4823249040116511</v>
+        <v>0.6226092896174864</v>
       </c>
       <c r="F20">
-        <v>0.4541040100250627</v>
+        <v>0.4516428844787054</v>
       </c>
       <c r="G20">
-        <v>0.4306363476114931</v>
+        <v>0.5372549019607843</v>
       </c>
       <c r="H20">
-        <v>0.3948437668548416</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I20">
-        <v>0.2741810277907157</v>
+        <v>0.4940476190476191</v>
       </c>
       <c r="J20">
-        <v>0.4590909090909091</v>
+        <v>0.4130952380952381</v>
       </c>
       <c r="K20">
-        <v>0.5412379827964244</v>
+        <v>0.4272420985079416</v>
       </c>
       <c r="L20">
-        <v>0.5660805445263755</v>
+        <v>0.4130952380952381</v>
       </c>
       <c r="M20">
-        <v>0.4516428844787054</v>
+        <v>0.2511013215859031</v>
       </c>
       <c r="N20">
-        <v>0.2576419213973799</v>
+        <v>0.4818126397073765</v>
       </c>
       <c r="O20">
-        <v>0.4055944055944056</v>
+        <v>0.3950177935943061</v>
       </c>
       <c r="P20">
-        <v>0.4306363476114931</v>
+        <v>0.6321649160077107</v>
       </c>
       <c r="Q20">
-        <v>0.441802536231884</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="R20">
-        <v>0.584419817470665</v>
+        <v>0.5142126635584299</v>
       </c>
       <c r="S20">
-        <v>0.5288248337028826</v>
+        <v>0.4447309609764484</v>
       </c>
       <c r="T20">
-        <v>0.6971705538754712</v>
+        <v>0.6804511278195489</v>
       </c>
     </row>
   </sheetData>
